--- a/Assets/Resources/xml/BALANCE.xlsx
+++ b/Assets/Resources/xml/BALANCE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -169,15 +169,9 @@
     <t>На наступному ході отримуються додаткові ОД</t>
   </si>
   <si>
-    <t>Да ОД на наступний хід 2</t>
-  </si>
-  <si>
     <t>1) User.addEffect ----&gt; Т(nextTurn)ApplyEffect</t>
   </si>
   <si>
-    <t>Да ОД на наступний хід 3</t>
-  </si>
-  <si>
     <t>Збільшує ОД на цей хід але забирає ОД з наступних</t>
   </si>
   <si>
@@ -265,9 +259,6 @@
     <t>Ціна ОД +2 Модифікатор Пошкоджень + 40% Модифікатор Лікування + 60%</t>
   </si>
   <si>
-    <t>Ціна ОД +2 Модифікатор Пошкоджень + 60% Модифікатор Лікування + 90%</t>
-  </si>
-  <si>
     <t>Кожен Хід 2 ОД</t>
   </si>
   <si>
@@ -581,6 +572,15 @@
   </si>
   <si>
     <t>Пошкодження 260 Обездвиження 2 хіди</t>
+  </si>
+  <si>
+    <t>Дає ОД на наступний хід 2</t>
+  </si>
+  <si>
+    <t>Дає ОД на наступний хід 3</t>
+  </si>
+  <si>
+    <t>Ціна ОД +1 Модифікатор Пошкоджень + 60% Модифікатор Лікування + 90%</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1132,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1141,60 +1141,60 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F14" s="1"/>
       <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" t="s">
         <v>102</v>
-      </c>
-      <c r="J14" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1"/>
       <c r="H16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" t="s">
         <v>103</v>
-      </c>
-      <c r="J16" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" t="s">
         <v>104</v>
-      </c>
-      <c r="J18" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:G46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,12 +1377,12 @@
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1433,15 +1433,15 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1480,27 +1480,27 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
         <v>57</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1579,15 +1579,15 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1680,10 +1680,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1703,7 +1703,7 @@
         <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s">
         <v>39</v>
@@ -1723,18 +1723,18 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F41">
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1748,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -1788,7 +1788,7 @@
         <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
@@ -1808,18 +1808,18 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1867,7 +1867,7 @@
         <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s">
         <v>39</v>
@@ -1884,24 +1884,24 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F53" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F54" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F55" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F56" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F57" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1963,7 +1963,7 @@
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s">
         <v>39</v>
@@ -1983,18 +1983,18 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F60">
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
         <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s">
         <v>39</v>
@@ -2031,16 +2031,16 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2093,15 +2093,15 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2182,7 +2182,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2194,15 +2194,15 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2244,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2283,7 +2283,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2295,15 +2295,15 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2370,7 +2370,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2382,15 +2382,15 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2404,7 +2404,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2418,7 +2418,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2438,7 +2438,7 @@
         <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2458,18 +2458,18 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2483,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -2523,18 +2523,18 @@
         <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
       </c>
       <c r="J37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2546,18 +2546,18 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2571,7 +2571,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -2588,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -2611,7 +2611,7 @@
         <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G43" t="s">
         <v>39</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2631,18 +2631,18 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F44">
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2679,15 +2679,15 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2701,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2729,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2743,7 +2743,7 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2763,7 +2763,7 @@
         <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G55" t="s">
         <v>39</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2783,18 +2783,18 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F56">
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2808,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -2825,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -2848,7 +2848,7 @@
         <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -2868,18 +2868,18 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F64">
         <v>4</v>
@@ -2910,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F65">
         <v>5</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2950,15 +2950,15 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2972,7 +2972,7 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3000,7 +3000,7 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3014,7 +3014,7 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -3051,15 +3051,15 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F76" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3073,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3115,7 +3115,7 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3135,7 +3135,7 @@
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G83" t="s">
         <v>39</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3155,7 +3155,7 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F84">
         <v>3</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3177,7 +3177,7 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F86">
         <v>4</v>
@@ -3194,7 +3194,7 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F87">
         <v>4</v>
@@ -3217,7 +3217,7 @@
         <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G89" t="s">
         <v>39</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -3237,7 +3237,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F90">
         <v>4</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3256,7 +3256,7 @@
         <v>180</v>
       </c>
       <c r="E92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F92">
         <v>4</v>
@@ -3270,7 +3270,7 @@
         <v>210</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F93">
         <v>4</v>
@@ -3284,7 +3284,7 @@
         <v>230</v>
       </c>
       <c r="E94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F94">
         <v>5</v>
@@ -3298,7 +3298,7 @@
         <v>260</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95">
         <v>5</v>

--- a/Assets/Resources/xml/BALANCE.xlsx
+++ b/Assets/Resources/xml/BALANCE.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Дерево" sheetId="2" r:id="rId2"/>
     <sheet name="Тактика" sheetId="3" r:id="rId3"/>
     <sheet name="Катана" sheetId="4" r:id="rId4"/>
+    <sheet name="Катари" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="288">
   <si>
     <t>Параметри</t>
   </si>
@@ -376,9 +377,6 @@
     <t>Пошкодження 200 Фізичний</t>
   </si>
   <si>
-    <t>Сильна атака - коли ворог помирає од неї повертається 1 ОД</t>
-  </si>
-  <si>
     <t>1) SelectTarget 2) Do Damage 3) Check death (if Y add 1AP to User)</t>
   </si>
   <si>
@@ -581,6 +579,309 @@
   </si>
   <si>
     <t>Ціна ОД +1 Модифікатор Пошкоджень + 60% Модифікатор Лікування + 90%</t>
+  </si>
+  <si>
+    <t>ухилення</t>
+  </si>
+  <si>
+    <t xml:space="preserve">подвійна атака </t>
+  </si>
+  <si>
+    <t>пробивання</t>
+  </si>
+  <si>
+    <t>вбивство</t>
+  </si>
+  <si>
+    <t>Смертельний темп</t>
+  </si>
+  <si>
+    <t>пронизуюче світло</t>
+  </si>
+  <si>
+    <t>сяючий плащ</t>
+  </si>
+  <si>
+    <t>швидше за світло</t>
+  </si>
+  <si>
+    <t>вогняний кіготь</t>
+  </si>
+  <si>
+    <t>вигорання</t>
+  </si>
+  <si>
+    <t>гієна</t>
+  </si>
+  <si>
+    <t>лезо вітру</t>
+  </si>
+  <si>
+    <t>торнадо</t>
+  </si>
+  <si>
+    <t>вивільнений потік</t>
+  </si>
+  <si>
+    <t>Ухилення</t>
+  </si>
+  <si>
+    <t>Є шанс ухилитися від атаки або скіла</t>
+  </si>
+  <si>
+    <t>Ухилення від атаки = 7% Ухилення від скіла 3%</t>
+  </si>
+  <si>
+    <t>Ухилення від атаки = 10% Ухилення від скіла 5%</t>
+  </si>
+  <si>
+    <t>Ухилення від атаки = 13% Ухилення від скіла 7%</t>
+  </si>
+  <si>
+    <t>Ухилення від атаки = 16% Ухилення від скіла 9%</t>
+  </si>
+  <si>
+    <t>Ухилення від атаки = 19% Ухилення від скіла 11%</t>
+  </si>
+  <si>
+    <t>Подвійна атака</t>
+  </si>
+  <si>
+    <t>Наносить два удари по одній цілі другий удар ігнорує захист</t>
+  </si>
+  <si>
+    <t>Пошкодження  45 Фізичний</t>
+  </si>
+  <si>
+    <t>Пошкодження  60 Фізичний</t>
+  </si>
+  <si>
+    <t>Пошкодження  75 Фізичний</t>
+  </si>
+  <si>
+    <t>Пошкодження  90 Фізичний</t>
+  </si>
+  <si>
+    <t>Пошкодження  105 Фізичний</t>
+  </si>
+  <si>
+    <t>Пробивання</t>
+  </si>
+  <si>
+    <t>Атаки ігнорують броню цілі</t>
+  </si>
+  <si>
+    <t>Ігнорується 1 броні</t>
+  </si>
+  <si>
+    <t>Ігнорується 2 броні</t>
+  </si>
+  <si>
+    <t>Сильна атака - коли ворог помирає од неї повертається 2 ОД</t>
+  </si>
+  <si>
+    <t>Вбивство</t>
+  </si>
+  <si>
+    <t>Потужна атака яка при вбивстві дає модифікатор пошкоджень і відновлю ХП гравця</t>
+  </si>
+  <si>
+    <t>Пошкодження 120 Фізичний Відновлення 30% від пошкоджень Модифікатор пошкоджень +10%</t>
+  </si>
+  <si>
+    <t>Пошкодження 150 Фізичний Відновлення 60% від пошкоджень Модифікатор пошкоджень +15%</t>
+  </si>
+  <si>
+    <t>Пошкодження 180 Фізичний Відновлення 90% від пошкоджень Модифікатор пошкоджень +20%</t>
+  </si>
+  <si>
+    <t>Пошкодження 240 Фізичний Відновлення 150% від пошкоджень Модифікатор пошкоджень +20%</t>
+  </si>
+  <si>
+    <t>Пошкодження 210 Фізичний Відновлення 120% від пошкоджень Модифікатор пошкоджень +20%</t>
+  </si>
+  <si>
+    <t>Зкожним ходом пасивно росте комбомодифікатор але і вхідні пошкодження</t>
+  </si>
+  <si>
+    <t>Комбомодифікатор +1 за хід Вхідні пошкодження +10% за хід</t>
+  </si>
+  <si>
+    <t>Комбомодифікатор +2 за хід Вхідні пошкодження +15% за хід</t>
+  </si>
+  <si>
+    <t>Комбомодифікатор +3 за хід Вхідні пошкодження +20% за хід</t>
+  </si>
+  <si>
+    <t>Пронизуюче світло</t>
+  </si>
+  <si>
+    <t>Атака по горизонталі і вертикалі світлом</t>
+  </si>
+  <si>
+    <t>Пошкодження 40 Світло</t>
+  </si>
+  <si>
+    <t>Пошкодження 60 Світло</t>
+  </si>
+  <si>
+    <t>Пошкодження 80 Світло</t>
+  </si>
+  <si>
+    <t>Пошкодження 100 Світло</t>
+  </si>
+  <si>
+    <t>Пошкодження 120 Світло</t>
+  </si>
+  <si>
+    <t>Пошкодження 140 Світло</t>
+  </si>
+  <si>
+    <t>Сяючий плащ</t>
+  </si>
+  <si>
+    <t>Додає до атак пошкодження світлом і зменшує рандомно один з захистів ворога</t>
+  </si>
+  <si>
+    <t>Пошкодження світлом +10% Зменшення захисту 1</t>
+  </si>
+  <si>
+    <t>Пошкодження світлом +20% Зменшення захисту 2</t>
+  </si>
+  <si>
+    <t>Пошкодження світлом +15% Зменшення захисту 1</t>
+  </si>
+  <si>
+    <t>Пошкодження світлом +25% Зменшення захисту 2</t>
+  </si>
+  <si>
+    <t>Швидше світла</t>
+  </si>
+  <si>
+    <t>Збільшує шанс ухилення і шанс критичної атаки але зменшує всі резісти</t>
+  </si>
+  <si>
+    <t>Ухилення від атак +10% Ухилення від скілів +7% Шанс критичної атаки +10% Всі резісти -3</t>
+  </si>
+  <si>
+    <t>Ухилення від атак +15% Ухилення від скілів +11% Шанс критичної атаки +15% Всі резісти -3</t>
+  </si>
+  <si>
+    <t>Ухилення від атак +20% Ухилення від скілів +15% Шанс критичної атаки +20% Всі резісти -3</t>
+  </si>
+  <si>
+    <t>Вогняний кіготь</t>
+  </si>
+  <si>
+    <t>Атака вогнем з підпалом</t>
+  </si>
+  <si>
+    <t>Пошкодження 50 Вогонь Підпал 50%</t>
+  </si>
+  <si>
+    <t>Пошкодження 80 Вогонь Підпал 60%</t>
+  </si>
+  <si>
+    <t>Пошкодження 110 Вогонь Підпал 70%</t>
+  </si>
+  <si>
+    <t>Пошкодження 140 Вогонь Підпал 80%</t>
+  </si>
+  <si>
+    <t>Пошкодження 170 Вогонь Підпал 90%</t>
+  </si>
+  <si>
+    <t>Вигорання</t>
+  </si>
+  <si>
+    <t>Кожен хід герой втрачає ХП але до його атак додаються пошкодження вогнем</t>
+  </si>
+  <si>
+    <t>ХП -5% Кожен хід Модифікатор пошкоджень вогнем 10% від атаки</t>
+  </si>
+  <si>
+    <t>ХП -10% Кожен хід Модифікатор пошкоджень вогнем 20% від атаки</t>
+  </si>
+  <si>
+    <t>ХП -15% Кожен хід Модифікатор пошкоджень вогнем 40% від атаки</t>
+  </si>
+  <si>
+    <t>Гієна</t>
+  </si>
+  <si>
+    <t>Потужна атака вогнем спершу по одному ворогу а потім по всім хто в зоні за ним</t>
+  </si>
+  <si>
+    <t>Пошкодження 250 Вогонь по першій цілі 180 Вогонь по іншим цілям</t>
+  </si>
+  <si>
+    <t>Пошкодження 280 Вогонь по першій цілі 200 Вогонь по іншим цілям</t>
+  </si>
+  <si>
+    <t>Пошкодження 310 Вогонь по першій цілі 220 Вогонь по іншим цілям</t>
+  </si>
+  <si>
+    <t>Пошкодження 350 Вогонь по першій цілі 260 Вогонь по іншим цілям</t>
+  </si>
+  <si>
+    <t>Пошкодження 390 Вогонь по першій цілі 300 Вогонь по іншим цілям</t>
+  </si>
+  <si>
+    <t>Лезо вітру</t>
+  </si>
+  <si>
+    <t>Атака повітрям яка збільшує свої пошкодження за фізичний захист цілі</t>
+  </si>
+  <si>
+    <t>Пошкодження 50 Повітря +10% за 1 Фізичного захисту</t>
+  </si>
+  <si>
+    <t>Пошкодження 60 Повітря +15% за 1 Фізичного захисту</t>
+  </si>
+  <si>
+    <t>Пошкодження 70 Повітря +20% за 1 Фізичного захисту</t>
+  </si>
+  <si>
+    <t>Пошкодження 90 Повітря +30% за 1 Фізичного захисту</t>
+  </si>
+  <si>
+    <t>Пошкодження 80 Повітря +25% за 1 Фізичного захисту</t>
+  </si>
+  <si>
+    <t>Торнадо</t>
+  </si>
+  <si>
+    <t>Станлочить ворогів на лінії і наносить пошкодження вітром з часом</t>
+  </si>
+  <si>
+    <t>Пошкодження 80 Повітря</t>
+  </si>
+  <si>
+    <t>Пошкодження 100 Повітря</t>
+  </si>
+  <si>
+    <t>Пошкодження 120 Повітря</t>
+  </si>
+  <si>
+    <t>Вивільнений потік</t>
+  </si>
+  <si>
+    <t>На всії ворогів ставиться мітка яка повністю забирає рандомний резіст мфтку можна зняти іншим типом зброї нанісши великиі пошкодження повітрям</t>
+  </si>
+  <si>
+    <t>Випадковий Резіст - 3 Пошкодження при знятті мітки  350 Повітря</t>
+  </si>
+  <si>
+    <t>Випадковий Резіст - 3 Пошкодження при знятті мітки  300 Повітря</t>
+  </si>
+  <si>
+    <t>Випадковий Резіст - 3 Пошкодження при знятті мітки  250 Повітря</t>
+  </si>
+  <si>
+    <t>Випадковий Резіст - 3 Пошкодження при знятті мітки  200 Повітря</t>
+  </si>
+  <si>
+    <t>Випадковий Резіст - 3 Пошкодження при знятті мітки  150 Повітря</t>
   </si>
 </sst>
 </file>
@@ -597,7 +898,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,6 +917,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -629,11 +936,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1035,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J18"/>
+  <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,7 +1486,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="F17" t="s">
         <v>98</v>
@@ -1186,7 +1494,7 @@
       <c r="H17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
         <v>97</v>
       </c>
@@ -1195,6 +1503,80 @@
       </c>
       <c r="J18" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>195</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1382,7 +1764,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1396,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1847,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2053,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J95"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2109,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2123,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2137,7 +2519,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2151,7 +2533,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2289,21 +2671,21 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" t="s">
         <v>119</v>
-      </c>
-      <c r="F19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2311,13 +2693,13 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2325,13 +2707,13 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2339,13 +2721,13 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2382,15 +2764,15 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2404,7 +2786,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2418,7 +2800,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2438,7 +2820,7 @@
         <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -2458,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -2469,7 +2851,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2483,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -2500,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -2523,13 +2905,13 @@
         <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
       </c>
       <c r="J37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2546,7 +2928,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -2557,7 +2939,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2571,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -2588,7 +2970,7 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -2611,7 +2993,7 @@
         <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G43" t="s">
         <v>39</v>
@@ -2631,18 +3013,18 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
         <v>140</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2679,15 +3061,15 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" t="s">
         <v>143</v>
-      </c>
-      <c r="F48" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2701,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2729,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2743,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2763,7 +3145,7 @@
         <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G55" t="s">
         <v>39</v>
@@ -2771,7 +3153,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2783,18 +3165,18 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
         <v>151</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2808,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -2825,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -2848,7 +3230,7 @@
         <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -2856,7 +3238,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -2868,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F62">
         <v>3</v>
@@ -2879,7 +3261,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2893,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F64">
         <v>4</v>
@@ -2910,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F65">
         <v>5</v>
@@ -2950,15 +3332,15 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" t="s">
         <v>161</v>
-      </c>
-      <c r="F68" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2972,7 +3354,7 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2986,7 +3368,7 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3000,7 +3382,7 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3014,7 +3396,7 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3051,15 +3433,15 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
+        <v>166</v>
+      </c>
+      <c r="F76" t="s">
         <v>167</v>
-      </c>
-      <c r="F76" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3073,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3087,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,7 +3483,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3115,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3135,7 +3517,7 @@
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G83" t="s">
         <v>39</v>
@@ -3143,7 +3525,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3155,7 +3537,7 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F84">
         <v>3</v>
@@ -3163,7 +3545,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3177,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F86">
         <v>4</v>
@@ -3194,7 +3576,7 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F87">
         <v>4</v>
@@ -3217,7 +3599,7 @@
         <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G89" t="s">
         <v>39</v>
@@ -3237,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F90">
         <v>4</v>
@@ -3245,7 +3627,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3256,7 +3638,7 @@
         <v>180</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F92">
         <v>4</v>
@@ -3270,7 +3652,7 @@
         <v>210</v>
       </c>
       <c r="E93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F93">
         <v>4</v>
@@ -3284,7 +3666,7 @@
         <v>230</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F94">
         <v>5</v>
@@ -3298,7 +3680,7 @@
         <v>260</v>
       </c>
       <c r="E95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F95">
         <v>5</v>
@@ -3308,4 +3690,1380 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>120</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>224</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>150</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>180</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>120</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>140</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>35</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>55</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>75</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>95</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>115</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>135</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>239</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>80</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>243</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>110</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>242</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>130</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>245</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>150</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>246</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>200</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>248</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>250</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>249</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>40</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>252</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>60</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>253</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>80</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>254</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>100</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>255</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>120</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>256</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="s">
+        <v>129</v>
+      </c>
+      <c r="G68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>257</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>80</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>258</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>120</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>260</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>160</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>261</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>150</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>180</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>210</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>240</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>270</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>269</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>35</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>50</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>65</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>80</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>95</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" t="s">
+        <v>129</v>
+      </c>
+      <c r="G90" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>276</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>120</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>278</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>160</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>279</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>200</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>280</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" t="s">
+        <v>129</v>
+      </c>
+      <c r="G96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>281</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>150</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>287</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>180</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>286</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>210</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>285</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>240</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>284</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>270</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>283</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Resources/xml/BALANCE.xlsx
+++ b/Assets/Resources/xml/BALANCE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Тактика" sheetId="3" r:id="rId3"/>
     <sheet name="Катана" sheetId="4" r:id="rId4"/>
     <sheet name="Катари" sheetId="5" r:id="rId5"/>
+    <sheet name="Коса" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="370">
   <si>
     <t>Параметри</t>
   </si>
@@ -882,6 +883,252 @@
   </si>
   <si>
     <t>Випадковий Резіст - 3 Пошкодження при знятті мітки  150 Повітря</t>
+  </si>
+  <si>
+    <t>Блокування</t>
+  </si>
+  <si>
+    <t>Пожирання</t>
+  </si>
+  <si>
+    <t>Широкий замах</t>
+  </si>
+  <si>
+    <t>Анархія</t>
+  </si>
+  <si>
+    <t>Жатва</t>
+  </si>
+  <si>
+    <t>Мітка Смерті</t>
+  </si>
+  <si>
+    <t>Відкладена смерть</t>
+  </si>
+  <si>
+    <t>Лик смерті</t>
+  </si>
+  <si>
+    <t>Ланцюгова блискавка</t>
+  </si>
+  <si>
+    <t>Електризація</t>
+  </si>
+  <si>
+    <t>Гроза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Витягування життя </t>
+  </si>
+  <si>
+    <t>Еволюція</t>
+  </si>
+  <si>
+    <t>Смертоцвіт</t>
+  </si>
+  <si>
+    <t>Є шанс повністю заблокувати атаку ворога</t>
+  </si>
+  <si>
+    <t>Шанс блоку 9%</t>
+  </si>
+  <si>
+    <t>Шанс блоку 13%</t>
+  </si>
+  <si>
+    <t>Шанс блоку 17%</t>
+  </si>
+  <si>
+    <t>Шанс блоку 21%</t>
+  </si>
+  <si>
+    <t>Шанс блоку 25%</t>
+  </si>
+  <si>
+    <t>Атака по області в 3 горизонтальних клітинки з дебафом кровотечі</t>
+  </si>
+  <si>
+    <t>Пошкодження 75 Фізичний Кровотеча 25% від атаки</t>
+  </si>
+  <si>
+    <t>Пошкодження 100 Фізичний Кровотеча 28% від атаки</t>
+  </si>
+  <si>
+    <t>Пошкодження 125 Фізичний Кровотеча 31% від атаки</t>
+  </si>
+  <si>
+    <t>Якщо цією атакою добити ворога то можна приплюсувати його резісти до свої на деякий час</t>
+  </si>
+  <si>
+    <t>Пошкодження 100 Фізичний</t>
+  </si>
+  <si>
+    <t>Кожен удар збільшує шанс критичної атаки і критичні пошкодження але зменшує шанс контратаки блокування і ухилення</t>
+  </si>
+  <si>
+    <t>Шанс критичної атаки +8% за удар критичні пошкодження +10% за удар - шанси блоку ухилення і контратаки -2% за удар</t>
+  </si>
+  <si>
+    <t>Шанс критичної атаки +5% за удар +5% за удар - шанси блоку ухилення і контратаки -3% за удар</t>
+  </si>
+  <si>
+    <t>Шанс критичної атаки +12% за удар +15% за удар - шанси блоку ухилення і контратаки -1% за удар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жатва </t>
+  </si>
+  <si>
+    <t>Перманентно збільшує лічильник комбо в обмін на ОД наступного ходу</t>
+  </si>
+  <si>
+    <t>Комбо +3</t>
+  </si>
+  <si>
+    <t>Комбо +4</t>
+  </si>
+  <si>
+    <t>Комбо +5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мітка смерті </t>
+  </si>
+  <si>
+    <t>Накладає на ворога мітку яка ослабляє його атаку і резісти</t>
+  </si>
+  <si>
+    <t>Атака -10% Смерть - 1 Темрява -1 Світло -1</t>
+  </si>
+  <si>
+    <t>Атака -15% Смерть - 1 Темрява -1 Світло -1</t>
+  </si>
+  <si>
+    <t>Атака -20% Смерть - 2 Темрява -1 Світло -2 Фізичний -1</t>
+  </si>
+  <si>
+    <t>Під кінець часу дії ворог вмирає атакуючи всіх навколо енергією смерті</t>
+  </si>
+  <si>
+    <t>Пошкодження 80 Смерть</t>
+  </si>
+  <si>
+    <t>Пошкодження 100 Смерть</t>
+  </si>
+  <si>
+    <t>Пошкодження 120 Смерть</t>
+  </si>
+  <si>
+    <t>Пошкодження 140 Смерть</t>
+  </si>
+  <si>
+    <t>Збільшення деяких резістів регенерація і пошкодження смертю всіх ворогів протягом часу дії</t>
+  </si>
+  <si>
+    <t>Пошкодження 60 Смерть; Смерть +2 Фізичний +1 Світло +1 Вода + 1; Регенерацыя 90</t>
+  </si>
+  <si>
+    <t>Пошкодження 90 Смерть; Смерть +2 Фізичний +1 Світло +1 Вода + 1; Регенерацыя 110</t>
+  </si>
+  <si>
+    <t>Пошкодження 120 Смерть; Смерть +2 Фізичний +1 Світло +1 Вода + 1; Регенерацыя 130</t>
+  </si>
+  <si>
+    <t>Пошкодження 150Смерть; Смерть +2 Фізичний +1 Світло +1 Вода + 1; Регенерацыя 150</t>
+  </si>
+  <si>
+    <t>Пошкодження 180 Смерть; Смерть +2 Фізичний +2 Світло +2 Вода + 1 Вогонь +1 ; Регенерацыя 170</t>
+  </si>
+  <si>
+    <t>Пошкодження 175 Фізичний Кровотеча 40% від атаки</t>
+  </si>
+  <si>
+    <t>Пошкодження 150 Фізичний Кровотеча 34% від атаки</t>
+  </si>
+  <si>
+    <t>атакує декілька цілей але кожній цілі наноситься менші пошкодження</t>
+  </si>
+  <si>
+    <t>Пошкодження 70 Блискавка Цілей 3 Зменшення пошкоджень 50%</t>
+  </si>
+  <si>
+    <t>Пошкодження 100 Блискавка Цілей 3 Зменшення пошкоджень 40%</t>
+  </si>
+  <si>
+    <t>Пошкодження 130 Блискавка Цілей 3 Зменшення пошкоджень 30%</t>
+  </si>
+  <si>
+    <t>Пошкодження 160 Блискавка Цілей 4 Зменшення пошкоджень 30%</t>
+  </si>
+  <si>
+    <t>Пошкодження 190 Блискавка Цілей 4 Зменшення пошкоджень 25%</t>
+  </si>
+  <si>
+    <t>Пошкодження 220 Блискавка Цілей 5 Зменшення пошкоджень 20%</t>
+  </si>
+  <si>
+    <t>Збільшуються критичні пошкодження і додається блискавка до атак</t>
+  </si>
+  <si>
+    <t>Критичні пошкодження +10% Атака блискавкою +10% до загальної атаки</t>
+  </si>
+  <si>
+    <t>Критичні пошкодження +20% Атака блискавкою +20% до загальної атаки</t>
+  </si>
+  <si>
+    <t>Критичні пошкодження +30% Атака блискавкою +30% до загальної атаки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гроза </t>
+  </si>
+  <si>
+    <t>Гігантські пошкодження блискавкою по всім ворогам на полі</t>
+  </si>
+  <si>
+    <t>Пошкодження 200 Блискавка</t>
+  </si>
+  <si>
+    <t>Пошкодження 240 Блискавка</t>
+  </si>
+  <si>
+    <t>Пошкодження 280 Блискавка</t>
+  </si>
+  <si>
+    <t>Атака життям по площы з выдновленням здоров'я героя Площа 9</t>
+  </si>
+  <si>
+    <t>Пошкодження 60 Життя Відхілювання 70% від атаки</t>
+  </si>
+  <si>
+    <t>Пошкодження 80 Життя Відхілювання 90% від атаки</t>
+  </si>
+  <si>
+    <t>Пошкодження 100 Життя Відхілювання 110% від атаки</t>
+  </si>
+  <si>
+    <t>Пошкодження 120 Життя Відхілювання 130% від атаки</t>
+  </si>
+  <si>
+    <t>Збільшує резіст до того типу пошкоджень який наноситься герою протягом часу дії</t>
+  </si>
+  <si>
+    <t>Резіст +1</t>
+  </si>
+  <si>
+    <t>Резіст +2</t>
+  </si>
+  <si>
+    <t>Є шанс що ворог при своїй атаці отримує параліч і отруєння; Також при атаці ворог отримує пошкодженн життям</t>
+  </si>
+  <si>
+    <t>Шанс на параліч і отруєння 10%; Час дыъ паралічу 2 Отруєння 40 Життя на 2; Пошкодження 60 Життя</t>
+  </si>
+  <si>
+    <t>Шанс на параліч і отруєння 14%; Час дії паралічу 2 Отруєння 60 Життя на 2; Пошкодження 80 Життя</t>
+  </si>
+  <si>
+    <t>Шанс на параліч і отруєння 18%; Час дії паралічу 2 Отруєння 80 Життя на 2; Пошкодження 80 Життя</t>
+  </si>
+  <si>
+    <t>Шанс на параліч і отруєння 22%; Час дії паралічу 3 Отруєння 100 Життя на 2; Пошкодження 100 Життя</t>
   </si>
 </sst>
 </file>
@@ -898,7 +1145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -923,6 +1170,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -936,12 +1189,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1343,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
+  <dimension ref="B1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,6 +1831,80 @@
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" t="s">
+        <v>288</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D30" t="s">
+        <v>293</v>
+      </c>
+      <c r="G30" t="s">
+        <v>296</v>
+      </c>
+      <c r="I30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>289</v>
+      </c>
+      <c r="D32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" t="s">
+        <v>297</v>
+      </c>
+      <c r="I32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G34" t="s">
+        <v>298</v>
+      </c>
+      <c r="I34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2435,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J95"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3696,8 +4024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5066,4 +5394,1271 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>130</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>340</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>160</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>314</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>200</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>315</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>250</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>317</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>320</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>140</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>180</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>322</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>324</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>70</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>327</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>90</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>329</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>120</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>330</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>150</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>331</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>180</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>332</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>295</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>180</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>334</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>220</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>335</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>260</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>336</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>300</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>337</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>340</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>338</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>296</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>60</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>90</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>120</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>150</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>180</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>210</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="s">
+        <v>129</v>
+      </c>
+      <c r="G65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>297</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>80</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>348</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>110</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>350</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>140</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>351</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>352</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>160</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>210</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>260</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>65</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>80</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>95</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>105</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" t="s">
+        <v>129</v>
+      </c>
+      <c r="G84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>300</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>100</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>362</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>150</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>364</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" t="s">
+        <v>129</v>
+      </c>
+      <c r="G89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>301</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>120</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>365</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>160</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>367</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>200</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>368</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>240</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>369</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Resources/xml/BALANCE.xlsx
+++ b/Assets/Resources/xml/BALANCE.xlsx
@@ -1597,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J36"/>
+  <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,12 +1611,12 @@
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1627,13 +1627,16 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -1647,12 +1650,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -1667,12 +1670,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" s="3"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -1680,15 +1683,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1700,8 +1703,11 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>92</v>
       </c>
@@ -1716,7 +1722,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" t="s">
@@ -1725,7 +1731,7 @@
       <c r="H15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>93</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="F17" t="s">
         <v>98</v>
@@ -1748,7 +1754,7 @@
       <c r="H17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
         <v>97</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1771,7 +1777,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>188</v>
       </c>
@@ -1784,14 +1790,17 @@
       <c r="I21" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="D22" s="1"/>
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>189</v>
       </c>
@@ -1805,13 +1814,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>190</v>
       </c>
@@ -1825,15 +1834,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1844,8 +1853,11 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>290</v>
       </c>
@@ -1859,13 +1871,13 @@
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="D31" s="1"/>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>289</v>
       </c>
@@ -2763,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J95"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4024,8 +4036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5401,7 +5413,7 @@
   <dimension ref="A2:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/Resources/xml/BALANCE.xlsx
+++ b/Assets/Resources/xml/BALANCE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="375">
   <si>
     <t>Параметри</t>
   </si>
@@ -384,15 +384,6 @@
     <t>Пошкодження 140 Фізичний</t>
   </si>
   <si>
-    <t>Пошкодження 210 Фізичний</t>
-  </si>
-  <si>
-    <t>Пошкодження 300 Фізичний</t>
-  </si>
-  <si>
-    <t>Пошкодження 420 Фізичний</t>
-  </si>
-  <si>
     <t>Атака яка помічає ціль міткою яку можна збити іншим типом зброї нанесши додаткові пошкодження</t>
   </si>
   <si>
@@ -414,27 +405,9 @@
     <t>Під час дії є шанс що атака або скіл ворога зрікошетить в іншу ціль</t>
   </si>
   <si>
-    <t>Шанс 15% Кількість Рікошетів 3</t>
-  </si>
-  <si>
-    <t>Шанс 10% Кількість Рікошетів 2</t>
-  </si>
-  <si>
-    <t>Шанс 20% Кількість Рікошетів 4</t>
-  </si>
-  <si>
     <t>Збільшує шанс і надає контратакі додаткові пошкодження Зменшує витрату ОД на деякі вміння</t>
   </si>
   <si>
-    <t>Шанс на контратаку +4% Додаткові пошкодження +15%</t>
-  </si>
-  <si>
-    <t>Шанс на контратаку +8% Додаткові пошкодження +30%</t>
-  </si>
-  <si>
-    <t>Шанс на контратаку +12% Додаткові пошкодження +45%</t>
-  </si>
-  <si>
     <t>Список навичок до яких зменшується витрата ОД (OnSkillUse)</t>
   </si>
   <si>
@@ -444,9 +417,6 @@
     <t>User.AddEffect</t>
   </si>
   <si>
-    <t>Земля +2 Вода + 2 Фізичний + 2</t>
-  </si>
-  <si>
     <t>Потужна атака землею по одній цілі - всім сусіднім наноситься частина пошкодженбь</t>
   </si>
   <si>
@@ -678,9 +648,6 @@
     <t>Ігнорується 2 броні</t>
   </si>
   <si>
-    <t>Сильна атака - коли ворог помирає од неї повертається 2 ОД</t>
-  </si>
-  <si>
     <t>Вбивство</t>
   </si>
   <si>
@@ -1129,6 +1096,54 @@
   </si>
   <si>
     <t>Шанс на параліч і отруєння 22%; Час дії паралічу 3 Отруєння 100 Життя на 2; Пошкодження 100 Життя</t>
+  </si>
+  <si>
+    <t>Переозброєння</t>
+  </si>
+  <si>
+    <t>Можна змінити тип зброї</t>
+  </si>
+  <si>
+    <t>Сильна атака - коли ворог помирає од неї повертається 1 ОД</t>
+  </si>
+  <si>
+    <t>Пошкодження 110 Фізичний</t>
+  </si>
+  <si>
+    <t>Пошкодження 180 Фізичний</t>
+  </si>
+  <si>
+    <t>Пошкодження 250 Фізичний</t>
+  </si>
+  <si>
+    <t>Пошкодження 320 Фізичний</t>
+  </si>
+  <si>
+    <t>Шанс 15% Кількість Рікошетів 2</t>
+  </si>
+  <si>
+    <t>Шанс 25% Кількість Рікошетів 3</t>
+  </si>
+  <si>
+    <t>Шанс 35% Кількість Рікошетів 4</t>
+  </si>
+  <si>
+    <t>Шанс на контратаку +4% Додаткові пошкодження +25%</t>
+  </si>
+  <si>
+    <t>Шанс на контратаку +8% Додаткові пошкодження +50%</t>
+  </si>
+  <si>
+    <t>Шанс на контратаку +12% Додаткові пошкодження +75%</t>
+  </si>
+  <si>
+    <t>Земля +2 Вода + 2 Фізичний + 2 Вогонь + 1 Темрява +1</t>
+  </si>
+  <si>
+    <t>Земля +2 Вода + 1 Фізичний + 1</t>
+  </si>
+  <si>
+    <t>Земля +2 Вода + 1 Фізичний + 1 Вогонь + 1 Темрява +1</t>
   </si>
 </sst>
 </file>
@@ -1597,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M36"/>
+  <dimension ref="B1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,201 +1632,189 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
       <c r="F3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="J4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="J6">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>30</v>
+      </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="M13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="H14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" t="s">
-        <v>96</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
+      <c r="M15">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="1"/>
       <c r="H16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="2" t="s">
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H20" t="s">
         <v>101</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J20" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" t="s">
-        <v>187</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" t="s">
-        <v>192</v>
-      </c>
-      <c r="G21" t="s">
-        <v>195</v>
-      </c>
-      <c r="I21" t="s">
-        <v>198</v>
-      </c>
-      <c r="M21">
-        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
       <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>188</v>
+      </c>
+      <c r="M23">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -1822,73 +1825,73 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>190</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
+      </c>
+      <c r="D25" t="s">
+        <v>183</v>
       </c>
       <c r="G25" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="B27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" t="s">
-        <v>288</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="M29">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>290</v>
-      </c>
-      <c r="D30" t="s">
-        <v>293</v>
-      </c>
-      <c r="G30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I30" t="s">
-        <v>299</v>
+      <c r="B29" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" t="s">
+        <v>277</v>
+      </c>
       <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
+      <c r="M31">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D32" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G32" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="I32" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -1899,24 +1902,44 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>295</v>
+        <v>278</v>
+      </c>
+      <c r="D34" t="s">
+        <v>283</v>
       </c>
       <c r="G34" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="I34" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>292</v>
+        <v>280</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" t="s">
+        <v>287</v>
+      </c>
+      <c r="I36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -1927,10 +1950,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G64"/>
+  <dimension ref="A2:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,7 +1980,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>359</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1969,10 +1992,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1997,415 +2017,415 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>49</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>185</v>
-      </c>
-    </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D20" t="s">
         <v>37</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E20" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>51</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>56</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>4</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>40</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>36</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D32" t="s">
         <v>37</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E32" t="s">
         <v>38</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
         <v>62</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>5</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2425,343 +2445,383 @@
         <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>31</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
         <v>71</v>
       </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
         <v>73</v>
       </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
         <v>74</v>
       </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>35</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" t="s">
         <v>40</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C49" t="s">
         <v>36</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E49" t="s">
         <v>38</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F49" t="s">
         <v>75</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>29</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
         <v>77</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>35</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>40</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C55" t="s">
         <v>36</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D55" t="s">
         <v>37</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E55" t="s">
         <v>38</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F55" t="s">
         <v>75</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G55" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>33</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
         <v>80</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E56" t="s">
         <v>82</v>
-      </c>
-      <c r="F53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E54" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>84</v>
-      </c>
-      <c r="F55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>85</v>
       </c>
       <c r="F56" t="s">
         <v>81</v>
       </c>
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
       <c r="E57" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s">
         <v>81</v>
       </c>
     </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>35</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B62" t="s">
         <v>40</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C62" t="s">
         <v>36</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D62" t="s">
         <v>37</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E62" t="s">
         <v>38</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F62" t="s">
         <v>75</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G62" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>87</v>
-      </c>
-      <c r="F60">
-        <v>4</v>
-      </c>
-      <c r="G60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E61" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>35</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" t="s">
         <v>40</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C66" t="s">
         <v>36</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D66" t="s">
         <v>37</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E66" t="s">
         <v>38</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F66" t="s">
         <v>75</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>34</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
         <v>89</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E67" t="s">
         <v>90</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2773,13 +2833,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J95"/>
+  <dimension ref="A2:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="96" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3017,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
+        <v>361</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -3025,7 +3088,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>120</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3033,13 +3096,13 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3047,13 +3110,13 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3061,13 +3124,13 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3104,15 +3167,15 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3126,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3134,13 +3197,13 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3160,7 +3223,7 @@
         <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -3180,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -3191,7 +3254,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>132</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3199,13 +3262,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>367</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -3216,13 +3279,13 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>368</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -3245,13 +3308,13 @@
         <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
       </c>
       <c r="J37" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3268,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -3279,7 +3342,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>135</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3293,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -3307,10 +3370,10 @@
         <v>180</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -3333,7 +3396,7 @@
         <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G43" t="s">
         <v>39</v>
@@ -3353,676 +3416,710 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>141</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>80</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>374</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>110</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>372</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>35</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>40</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>36</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E49" t="s">
         <v>38</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>98</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>70</v>
       </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>142</v>
-      </c>
-      <c r="F48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <v>100</v>
-      </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>132</v>
+      </c>
+      <c r="F50" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51">
-        <v>130</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>130</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>160</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55">
         <v>5</v>
       </c>
-      <c r="C53">
+      <c r="C55">
         <v>190</v>
       </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>60</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>80</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>75</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>85</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="F66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>35</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B69" t="s">
         <v>40</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C69" t="s">
         <v>36</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D69" t="s">
         <v>37</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E69" t="s">
         <v>38</v>
       </c>
-      <c r="F55" t="s">
-        <v>129</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="F69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>60</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>120</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
         <v>150</v>
       </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="F70" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E57" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58">
-        <v>65</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>153</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59">
-        <v>70</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>154</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" t="s">
-        <v>129</v>
-      </c>
-      <c r="G61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>155</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>75</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>156</v>
-      </c>
-      <c r="F62">
-        <v>3</v>
-      </c>
-      <c r="G62" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E63" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="C64">
-        <v>85</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>158</v>
-      </c>
-      <c r="F64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>3</v>
-      </c>
-      <c r="C65">
-        <v>100</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>159</v>
-      </c>
-      <c r="F65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>101</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>120</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68" t="s">
-        <v>160</v>
-      </c>
-      <c r="F68" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70">
-        <v>140</v>
-      </c>
-      <c r="D70">
-        <v>3</v>
-      </c>
-      <c r="E70" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71">
-        <v>160</v>
-      </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
-      <c r="E71" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>160</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>180</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75">
         <v>5</v>
       </c>
-      <c r="C73">
+      <c r="C75">
         <v>200</v>
       </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>35</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" t="s">
         <v>40</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C77" t="s">
         <v>36</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D77" t="s">
         <v>37</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E77" t="s">
         <v>38</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>102</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
         <v>80</v>
       </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s">
-        <v>166</v>
-      </c>
-      <c r="F76" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E77" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78">
-        <v>90</v>
-      </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>169</v>
+        <v>156</v>
+      </c>
+      <c r="F78" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>3</v>
-      </c>
-      <c r="C79">
-        <v>100</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
       <c r="E79" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>100</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>110</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83">
         <v>5</v>
       </c>
-      <c r="C81">
+      <c r="C83">
         <v>120</v>
       </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>35</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B85" t="s">
         <v>40</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>36</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D85" t="s">
         <v>37</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E85" t="s">
         <v>38</v>
       </c>
-      <c r="F83" t="s">
-        <v>129</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="F85" t="s">
+        <v>126</v>
+      </c>
+      <c r="G85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>173</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
         <v>120</v>
       </c>
-      <c r="D84">
-        <v>3</v>
-      </c>
-      <c r="E84" t="s">
-        <v>174</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E85" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <v>2</v>
-      </c>
-      <c r="C86">
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
         <v>160</v>
       </c>
-      <c r="D86">
-        <v>3</v>
-      </c>
-      <c r="E86" t="s">
-        <v>177</v>
-      </c>
-      <c r="F86">
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="C87">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
         <v>200</v>
       </c>
-      <c r="D87">
-        <v>3</v>
-      </c>
-      <c r="E87" t="s">
-        <v>176</v>
-      </c>
-      <c r="F87">
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>166</v>
+      </c>
+      <c r="F89">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>35</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
         <v>40</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C91" t="s">
         <v>36</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D91" t="s">
         <v>37</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E91" t="s">
         <v>38</v>
       </c>
-      <c r="F89" t="s">
-        <v>129</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="F91" t="s">
+        <v>126</v>
+      </c>
+      <c r="G91" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>104</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
         <v>150</v>
       </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="E90" t="s">
-        <v>178</v>
-      </c>
-      <c r="F90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E91" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B92">
-        <v>2</v>
-      </c>
-      <c r="C92">
-        <v>180</v>
+      <c r="D92">
+        <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F92">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B93">
-        <v>3</v>
-      </c>
-      <c r="C93">
-        <v>210</v>
-      </c>
       <c r="E93" t="s">
-        <v>181</v>
-      </c>
-      <c r="F93">
-        <v>4</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>180</v>
+      </c>
+      <c r="E94" t="s">
+        <v>170</v>
+      </c>
+      <c r="F94">
         <v>4</v>
-      </c>
-      <c r="C94">
-        <v>230</v>
-      </c>
-      <c r="E94" t="s">
-        <v>182</v>
-      </c>
-      <c r="F94">
-        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>210</v>
+      </c>
+      <c r="E95" t="s">
+        <v>171</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>230</v>
+      </c>
+      <c r="E96" t="s">
+        <v>172</v>
+      </c>
+      <c r="F96">
         <v>5</v>
       </c>
-      <c r="C95">
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
         <v>260</v>
       </c>
-      <c r="E95" t="s">
-        <v>183</v>
-      </c>
-      <c r="F95">
+      <c r="E97" t="s">
+        <v>173</v>
+      </c>
+      <c r="F97">
         <v>5</v>
       </c>
     </row>
@@ -4064,7 +4161,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4076,12 +4173,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4095,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4109,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4123,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4137,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4162,7 +4259,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4174,12 +4271,12 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4193,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4207,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4221,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4235,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4255,7 +4352,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
         <v>39</v>
@@ -4263,7 +4360,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4275,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -4283,7 +4380,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4297,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -4314,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -4337,7 +4434,7 @@
         <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -4345,7 +4442,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4357,12 +4454,12 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -4379,7 +4476,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -4396,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -4413,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4430,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4453,7 +4550,7 @@
         <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
@@ -4461,7 +4558,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4473,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -4481,7 +4578,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4495,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -4512,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -4540,7 +4637,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4552,12 +4649,12 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4571,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4585,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4599,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4613,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4627,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4647,7 +4744,7 @@
         <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4655,7 +4752,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4667,12 +4764,12 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -4689,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -4706,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -4723,7 +4820,7 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -4746,7 +4843,7 @@
         <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G54" t="s">
         <v>39</v>
@@ -4754,7 +4851,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4766,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F55">
         <v>3</v>
@@ -4774,7 +4871,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4788,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F57">
         <v>4</v>
@@ -4805,7 +4902,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F58">
         <v>4</v>
@@ -4828,7 +4925,7 @@
         <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G60" t="s">
         <v>39</v>
@@ -4836,7 +4933,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4848,12 +4945,12 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -4870,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -4887,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F64">
         <v>3</v>
@@ -4904,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -4921,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F66">
         <v>3</v>
@@ -4944,7 +5041,7 @@
         <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -4952,7 +5049,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4964,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F69">
         <v>4</v>
@@ -4972,7 +5069,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4986,7 +5083,7 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F71">
         <v>4</v>
@@ -5003,7 +5100,7 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F72">
         <v>4</v>
@@ -5031,7 +5128,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -5043,12 +5140,12 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -5062,7 +5159,7 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -5076,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -5090,7 +5187,7 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5104,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -5129,7 +5226,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -5141,12 +5238,12 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -5160,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5174,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -5188,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -5202,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -5222,7 +5319,7 @@
         <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G90" t="s">
         <v>39</v>
@@ -5230,7 +5327,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -5242,12 +5339,12 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -5264,7 +5361,7 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -5281,7 +5378,7 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="F94">
         <v>3</v>
@@ -5304,7 +5401,7 @@
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -5312,7 +5409,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -5324,12 +5421,12 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F98">
         <v>4</v>
@@ -5346,7 +5443,7 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F99">
         <v>4</v>
@@ -5363,7 +5460,7 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F100">
         <v>4</v>
@@ -5380,7 +5477,7 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F101">
         <v>4</v>
@@ -5397,7 +5494,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="F102">
         <v>5</v>
@@ -5412,7 +5509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
@@ -5440,7 +5537,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5452,12 +5549,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5471,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5485,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5499,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5513,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5533,7 +5630,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
         <v>39</v>
@@ -5541,7 +5638,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5553,12 +5650,12 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -5575,7 +5672,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -5592,7 +5689,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -5609,7 +5706,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -5626,7 +5723,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -5649,7 +5746,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
         <v>39</v>
@@ -5657,7 +5754,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5669,12 +5766,12 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -5714,7 +5811,7 @@
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -5722,7 +5819,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5734,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -5742,7 +5839,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5756,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -5773,7 +5870,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -5796,7 +5893,7 @@
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s">
         <v>39</v>
@@ -5804,7 +5901,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5816,12 +5913,12 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5838,7 +5935,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5855,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5878,7 +5975,7 @@
         <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -5886,7 +5983,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5898,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -5906,7 +6003,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -5920,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -5937,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -5960,7 +6057,7 @@
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -5968,7 +6065,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5980,12 +6077,12 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -6002,7 +6099,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -6019,7 +6116,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -6036,7 +6133,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -6059,7 +6156,7 @@
         <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G48" t="s">
         <v>39</v>
@@ -6067,7 +6164,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6079,12 +6176,12 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -6101,7 +6198,7 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -6118,7 +6215,7 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -6135,7 +6232,7 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F53">
         <v>4</v>
@@ -6152,7 +6249,7 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -6180,7 +6277,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6192,12 +6289,12 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6211,7 +6308,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6225,7 +6322,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6239,7 +6336,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6253,7 +6350,7 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6267,7 +6364,7 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -6287,7 +6384,7 @@
         <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G65" t="s">
         <v>39</v>
@@ -6295,7 +6392,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -6307,7 +6404,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F66">
         <v>3</v>
@@ -6315,7 +6412,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -6329,7 +6426,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F68">
         <v>3</v>
@@ -6346,7 +6443,7 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F69">
         <v>3</v>
@@ -6374,7 +6471,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -6386,12 +6483,12 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -6405,7 +6502,7 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -6419,7 +6516,7 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -6444,7 +6541,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -6456,12 +6553,12 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -6475,7 +6572,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -6489,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -6503,7 +6600,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -6523,7 +6620,7 @@
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G84" t="s">
         <v>39</v>
@@ -6531,7 +6628,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6543,7 +6640,7 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -6551,7 +6648,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -6565,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F87">
         <v>3</v>
@@ -6588,7 +6685,7 @@
         <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G89" t="s">
         <v>39</v>
@@ -6596,7 +6693,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -6608,7 +6705,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F90">
         <v>3</v>
@@ -6616,7 +6713,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -6630,7 +6727,7 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F92">
         <v>3</v>
@@ -6647,7 +6744,7 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F93">
         <v>3</v>
@@ -6664,7 +6761,7 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F94">
         <v>4</v>

--- a/Assets/Resources/xml/BALANCE.xlsx
+++ b/Assets/Resources/xml/BALANCE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
+    <workbookView minimized="1" xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -465,15 +465,9 @@
     <t>ХП + 30 За хід</t>
   </si>
   <si>
-    <t>ХП + 45 За хід</t>
-  </si>
-  <si>
     <t>ХП + 60 За хід</t>
   </si>
   <si>
-    <t>Пошкодження всім ворогам на полі бою водою</t>
-  </si>
-  <si>
     <t>1) DO damage</t>
   </si>
   <si>
@@ -1144,6 +1138,12 @@
   </si>
   <si>
     <t>Земля +2 Вода + 1 Фізичний + 1 Вогонь + 1 Темрява +1</t>
+  </si>
+  <si>
+    <t>ХП + 90 За хід</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пошкодження двом першим лініям </t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1802,16 +1802,16 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M23">
         <v>14</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -1845,16 +1845,16 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -1871,7 +1871,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1882,16 +1882,16 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D32" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G32" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -1902,16 +1902,16 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1922,16 +1922,16 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -1939,7 +1939,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,7 +2164,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2178,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2835,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3130,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3254,7 +3254,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3268,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -3285,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3356,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -3373,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3441,7 +3441,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -3458,7 +3458,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -3715,7 +3715,7 @@
         <v>148</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3723,16 +3723,16 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>373</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3769,15 +3769,15 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>374</v>
       </c>
       <c r="F70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3805,7 +3805,7 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3819,7 +3819,7 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3833,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3870,15 +3870,15 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3906,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3920,7 +3920,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3934,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3962,7 +3962,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3974,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F86">
         <v>3</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88">
         <v>4</v>
@@ -4013,7 +4013,7 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F89">
         <v>4</v>
@@ -4056,7 +4056,7 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F92">
         <v>4</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4075,7 +4075,7 @@
         <v>180</v>
       </c>
       <c r="E94" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F94">
         <v>4</v>
@@ -4089,7 +4089,7 @@
         <v>210</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F95">
         <v>4</v>
@@ -4103,7 +4103,7 @@
         <v>230</v>
       </c>
       <c r="E96" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F96">
         <v>5</v>
@@ -4117,7 +4117,7 @@
         <v>260</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F97">
         <v>5</v>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4173,12 +4173,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4259,7 +4259,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4271,12 +4271,12 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4318,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4332,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4360,7 +4360,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -4411,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4454,12 +4454,12 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -4476,7 +4476,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -4493,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -4510,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4527,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4649,12 +4649,12 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4668,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4682,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4710,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4724,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4752,7 +4752,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4764,12 +4764,12 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -4786,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -4803,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -4820,7 +4820,7 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4863,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F55">
         <v>3</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4885,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F57">
         <v>4</v>
@@ -4902,7 +4902,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F58">
         <v>4</v>
@@ -4933,7 +4933,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4945,12 +4945,12 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -4967,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -4984,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F64">
         <v>3</v>
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -5018,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F66">
         <v>3</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -5061,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F69">
         <v>4</v>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5083,7 +5083,7 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F71">
         <v>4</v>
@@ -5100,7 +5100,7 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F72">
         <v>4</v>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -5140,12 +5140,12 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -5159,7 +5159,7 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -5173,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -5187,7 +5187,7 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5201,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -5226,7 +5226,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -5238,12 +5238,12 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -5257,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5271,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -5299,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -5327,7 +5327,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -5339,12 +5339,12 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -5361,7 +5361,7 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -5378,7 +5378,7 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F94">
         <v>3</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -5421,12 +5421,12 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F98">
         <v>4</v>
@@ -5443,7 +5443,7 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F99">
         <v>4</v>
@@ -5460,7 +5460,7 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F100">
         <v>4</v>
@@ -5477,7 +5477,7 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F101">
         <v>4</v>
@@ -5494,7 +5494,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F102">
         <v>5</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5549,12 +5549,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5638,7 +5638,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5650,12 +5650,12 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -5672,7 +5672,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -5689,7 +5689,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -5706,7 +5706,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -5723,7 +5723,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5766,12 +5766,12 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5831,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -5870,7 +5870,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5913,12 +5913,12 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5935,7 +5935,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5952,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5995,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6017,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -6077,12 +6077,12 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -6099,7 +6099,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -6116,7 +6116,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -6133,7 +6133,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6176,12 +6176,12 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -6198,7 +6198,7 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -6215,7 +6215,7 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -6232,7 +6232,7 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F53">
         <v>4</v>
@@ -6249,7 +6249,7 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6289,12 +6289,12 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6308,7 +6308,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6322,7 +6322,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6336,7 +6336,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6350,7 +6350,7 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6364,7 +6364,7 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -6392,7 +6392,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -6404,7 +6404,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F66">
         <v>3</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -6426,7 +6426,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F68">
         <v>3</v>
@@ -6443,7 +6443,7 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F69">
         <v>3</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -6483,12 +6483,12 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -6502,7 +6502,7 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -6516,7 +6516,7 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -6541,7 +6541,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -6553,12 +6553,12 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -6572,7 +6572,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -6586,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -6600,7 +6600,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -6628,7 +6628,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6640,7 +6640,7 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -6648,7 +6648,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -6662,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F87">
         <v>3</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -6705,7 +6705,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F90">
         <v>3</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -6727,7 +6727,7 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F92">
         <v>3</v>
@@ -6744,7 +6744,7 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F93">
         <v>3</v>
@@ -6761,7 +6761,7 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F94">
         <v>4</v>

--- a/Assets/Resources/xml/BALANCE.xlsx
+++ b/Assets/Resources/xml/BALANCE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="376">
   <si>
     <t>Параметри</t>
   </si>
@@ -474,15 +474,6 @@
     <t>Пошкодження 110 Вода</t>
   </si>
   <si>
-    <t>Пошкодження 160 Вода</t>
-  </si>
-  <si>
-    <t>Пошкодження 210 Вода</t>
-  </si>
-  <si>
-    <t>Пошкодження 270 Вода</t>
-  </si>
-  <si>
     <t>Атака ворогів на одній лінії темрявою</t>
   </si>
   <si>
@@ -513,12 +504,6 @@
     <t>Атака -20% Захист темряви -1 Фз захист -1 Захист Життя -1</t>
   </si>
   <si>
-    <t>Атака -50% Захист темряви -2 Фз захист -2 Захист Життя -2</t>
-  </si>
-  <si>
-    <t>Атака -35% Захист темряви -1 Фз захист -1 Захист Життя -1</t>
-  </si>
-  <si>
     <t>Демон темряви атакую кжен хід рандомного ворога обездвижуючи його</t>
   </si>
   <si>
@@ -531,12 +516,6 @@
     <t>Пошкодження 210 Обездвиження 1 хід</t>
   </si>
   <si>
-    <t>Пошкодження 230 Обездвиження 1 хід</t>
-  </si>
-  <si>
-    <t>Пошкодження 260 Обездвиження 2 хіди</t>
-  </si>
-  <si>
     <t>Дає ОД на наступний хід 2</t>
   </si>
   <si>
@@ -1143,14 +1122,38 @@
     <t>ХП + 90 За хід</t>
   </si>
   <si>
-    <t xml:space="preserve">Пошкодження двом першим лініям </t>
+    <t>Пошкодження двом ворогам на кожній лінії</t>
+  </si>
+  <si>
+    <t>Пошкодження 140 Вода</t>
+  </si>
+  <si>
+    <t>Пошкодження 170 Вода</t>
+  </si>
+  <si>
+    <t>Пошкодження 200 Вода</t>
+  </si>
+  <si>
+    <t>Пошкодження 230 Вода</t>
+  </si>
+  <si>
+    <t>Атака -50% Захист темряви -3 Фз захист -2 Захист Життя -2</t>
+  </si>
+  <si>
+    <t>Атака -35% Захист темряви -2 Фз захист -1 Захист Життя -1</t>
+  </si>
+  <si>
+    <t>Пошкодження 240 Обездвиження 1 хід</t>
+  </si>
+  <si>
+    <t>Пошкодження 270 Обездвиження 2 хіди</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1217,6 +1220,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1236,7 +1307,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="E9FFD5"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1271,7 +1342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1303,10 +1374,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1338,7 +1408,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1514,36 +1583,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1551,7 +1620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1565,7 +1634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1590,7 +1659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1611,14 +1680,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1626,20 +1695,20 @@
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13">
       <c r="F1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13">
       <c r="F3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1650,7 +1719,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13">
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" s="1"/>
@@ -1659,7 +1728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -1673,12 +1742,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13">
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -1693,12 +1762,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13">
       <c r="B10" s="1"/>
       <c r="D10" s="3"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1706,15 +1775,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13">
       <c r="F13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1730,7 +1799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" t="s">
         <v>92</v>
       </c>
@@ -1745,7 +1814,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="F17" t="s">
@@ -1754,7 +1823,7 @@
       <c r="H17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="B18" t="s">
         <v>93</v>
       </c>
@@ -1769,7 +1838,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="D19" s="1"/>
       <c r="F19" t="s">
         <v>98</v>
@@ -1777,7 +1846,7 @@
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="D20" s="2" t="s">
         <v>97</v>
       </c>
@@ -1788,90 +1857,90 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13">
       <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
         <v>176</v>
       </c>
-      <c r="D23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" t="s">
-        <v>183</v>
-      </c>
       <c r="I23" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="M23">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" t="s">
         <v>177</v>
       </c>
-      <c r="D25" t="s">
-        <v>181</v>
-      </c>
-      <c r="G25" t="s">
-        <v>184</v>
-      </c>
       <c r="I25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" s="1"/>
       <c r="D26" s="1"/>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="B27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G27" t="s">
-        <v>185</v>
-      </c>
       <c r="I27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="B29" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1880,66 +1949,66 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13">
       <c r="B32" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D32" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9">
       <c r="B34" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D34" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G34" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I34" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9">
       <c r="B36" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G36" t="s">
         <v>278</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G36" t="s">
-        <v>285</v>
-      </c>
       <c r="I36" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9">
       <c r="B38" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -1949,16 +2018,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1978,9 +2047,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1992,10 +2061,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2015,7 +2084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2035,7 +2104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2055,7 +2124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2075,12 +2144,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="E10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11">
         <v>2</v>
       </c>
@@ -2094,7 +2163,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="B12">
         <v>3</v>
       </c>
@@ -2108,7 +2177,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="B13">
         <v>4</v>
       </c>
@@ -2122,7 +2191,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2142,7 +2211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2162,12 +2231,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="E17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="B18">
         <v>2</v>
       </c>
@@ -2178,10 +2247,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2201,7 +2270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2221,12 +2290,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="E22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="B23">
         <v>2</v>
       </c>
@@ -2240,7 +2309,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2260,7 +2329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2280,12 +2349,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="E27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="B28">
         <v>2</v>
       </c>
@@ -2299,7 +2368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="B29">
         <v>3</v>
       </c>
@@ -2313,7 +2382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="B30">
         <v>4</v>
       </c>
@@ -2327,7 +2396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2347,7 +2416,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -2367,12 +2436,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="E34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="B35">
         <v>2</v>
       </c>
@@ -2386,7 +2455,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="B36">
         <v>3</v>
       </c>
@@ -2400,7 +2469,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="B37">
         <v>4</v>
       </c>
@@ -2414,7 +2483,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="B38">
         <v>5</v>
       </c>
@@ -2428,7 +2497,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -2448,7 +2517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2468,7 +2537,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -2491,7 +2560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -2514,12 +2583,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="E45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="B46">
         <v>2</v>
       </c>
@@ -2536,7 +2605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="B47">
         <v>3</v>
       </c>
@@ -2553,7 +2622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -2576,7 +2645,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2599,12 +2668,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="E51" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="B52">
         <v>2</v>
       </c>
@@ -2618,7 +2687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="B53">
         <v>3</v>
       </c>
@@ -2629,10 +2698,10 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -2655,7 +2724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -2678,7 +2747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="E57" t="s">
         <v>83</v>
       </c>
@@ -2686,7 +2755,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="B58">
         <v>2</v>
       </c>
@@ -2700,7 +2769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="B59">
         <v>3</v>
       </c>
@@ -2714,7 +2783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="B60">
         <v>4</v>
       </c>
@@ -2728,7 +2797,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2751,7 +2820,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>32</v>
       </c>
@@ -2774,12 +2843,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="E64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2802,7 +2871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -2832,19 +2901,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="96" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2864,7 +2933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -2884,12 +2953,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="E4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2903,7 +2972,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2917,7 +2986,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2931,7 +3000,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="B8">
         <v>5</v>
       </c>
@@ -2945,7 +3014,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -2965,7 +3034,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -2985,12 +3054,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="E12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="B13">
         <v>2</v>
       </c>
@@ -3004,7 +3073,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14">
         <v>3</v>
       </c>
@@ -3018,7 +3087,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="B15">
         <v>4</v>
       </c>
@@ -3032,7 +3101,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16">
         <v>5</v>
       </c>
@@ -3046,7 +3115,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3066,7 +3135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -3080,18 +3149,18 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="E20" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="B21">
         <v>2</v>
       </c>
@@ -3102,10 +3171,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="B22">
         <v>3</v>
       </c>
@@ -3116,10 +3185,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="B23">
         <v>4</v>
       </c>
@@ -3130,10 +3199,10 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3153,7 +3222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -3173,12 +3242,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="E27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="B28">
         <v>2</v>
       </c>
@@ -3192,7 +3261,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="B29">
         <v>3</v>
       </c>
@@ -3206,7 +3275,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3229,7 +3298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -3252,12 +3321,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="E33" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="B34">
         <v>2</v>
       </c>
@@ -3268,13 +3337,13 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="B35">
         <v>3</v>
       </c>
@@ -3285,13 +3354,13 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3317,7 +3386,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -3340,12 +3409,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="E39" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="B40">
         <v>2</v>
       </c>
@@ -3356,13 +3425,13 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="B41">
         <v>3</v>
       </c>
@@ -3373,13 +3442,13 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F41">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -3402,7 +3471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -3425,12 +3494,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="E45" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="B46">
         <v>2</v>
       </c>
@@ -3441,13 +3510,13 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="B47">
         <v>3</v>
       </c>
@@ -3458,13 +3527,13 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -3484,7 +3553,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -3504,12 +3573,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="E51" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="B52">
         <v>2</v>
       </c>
@@ -3523,7 +3592,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="B53">
         <v>3</v>
       </c>
@@ -3537,7 +3606,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="B54">
         <v>4</v>
       </c>
@@ -3551,7 +3620,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="B55">
         <v>5</v>
       </c>
@@ -3565,7 +3634,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -3588,7 +3657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>139</v>
       </c>
@@ -3611,12 +3680,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="E59" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="B60">
         <v>2</v>
       </c>
@@ -3633,7 +3702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="B61">
         <v>3</v>
       </c>
@@ -3650,7 +3719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -3673,7 +3742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>145</v>
       </c>
@@ -3696,12 +3765,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="E65" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="B66">
         <v>2</v>
       </c>
@@ -3718,7 +3787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="B67">
         <v>3</v>
       </c>
@@ -3729,13 +3798,13 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F67">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>35</v>
       </c>
@@ -3755,7 +3824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -3769,18 +3838,18 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F70" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="E71" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="B72">
         <v>2</v>
       </c>
@@ -3791,10 +3860,10 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="B73">
         <v>3</v>
       </c>
@@ -3805,10 +3874,10 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="B74">
         <v>4</v>
       </c>
@@ -3819,10 +3888,10 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="B75">
         <v>5</v>
       </c>
@@ -3830,13 +3899,13 @@
         <v>200</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -3856,7 +3925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -3870,18 +3939,18 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="E79" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="B80">
         <v>2</v>
       </c>
@@ -3892,10 +3961,10 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="B81">
         <v>3</v>
       </c>
@@ -3906,10 +3975,10 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="B82">
         <v>4</v>
       </c>
@@ -3920,10 +3989,10 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="B83">
         <v>5</v>
       </c>
@@ -3931,13 +4000,13 @@
         <v>120</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -3960,9 +4029,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3974,18 +4043,18 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F86">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="E87" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="B88">
         <v>2</v>
       </c>
@@ -3996,13 +4065,13 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>373</v>
       </c>
       <c r="F88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="B89">
         <v>3</v>
       </c>
@@ -4013,13 +4082,13 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>164</v>
+        <v>372</v>
       </c>
       <c r="F89">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -4042,7 +4111,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -4053,71 +4122,83 @@
         <v>150</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F92">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="E93" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="B94">
         <v>2</v>
       </c>
       <c r="C94">
         <v>180</v>
       </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
       <c r="E94" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F94">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="B95">
         <v>3</v>
       </c>
       <c r="C95">
         <v>210</v>
       </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
       <c r="E95" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F95">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="B96">
         <v>4</v>
       </c>
       <c r="C96">
-        <v>230</v>
+        <v>240</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>170</v>
+        <v>374</v>
       </c>
       <c r="F96">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6">
       <c r="B97">
         <v>5</v>
       </c>
       <c r="C97">
-        <v>260</v>
+        <v>270</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>171</v>
+        <v>375</v>
       </c>
       <c r="F97">
         <v>5</v>
@@ -4130,16 +4211,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="142.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -4159,9 +4243,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4173,15 +4257,15 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="E4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5">
         <v>2</v>
       </c>
@@ -4192,10 +4276,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6">
         <v>3</v>
       </c>
@@ -4206,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="B7">
         <v>4</v>
       </c>
@@ -4220,10 +4304,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8">
         <v>5</v>
       </c>
@@ -4234,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -4257,85 +4341,85 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="E12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4358,66 +4442,66 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="E20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -4440,100 +4524,100 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="E26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="B29">
         <v>4</v>
       </c>
       <c r="C29">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="B30">
         <v>5</v>
       </c>
       <c r="C30">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -4556,9 +4640,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4567,21 +4651,21 @@
         <v>100</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="E34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="B35">
         <v>2</v>
       </c>
@@ -4589,16 +4673,16 @@
         <v>120</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="B36">
         <v>3</v>
       </c>
@@ -4606,16 +4690,16 @@
         <v>140</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -4635,9 +4719,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4649,15 +4733,15 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="E40" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="B41">
         <v>2</v>
       </c>
@@ -4668,10 +4752,10 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="B42">
         <v>3</v>
       </c>
@@ -4682,10 +4766,10 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="B43">
         <v>4</v>
       </c>
@@ -4696,10 +4780,10 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="B44">
         <v>5</v>
       </c>
@@ -4710,10 +4794,10 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="B45">
         <v>6</v>
       </c>
@@ -4724,10 +4808,10 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -4750,9 +4834,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4764,18 +4848,18 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="E49" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="B50">
         <v>2</v>
       </c>
@@ -4786,13 +4870,13 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="B51">
         <v>3</v>
       </c>
@@ -4803,13 +4887,13 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F51">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="B52">
         <v>4</v>
       </c>
@@ -4820,13 +4904,13 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F52">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -4849,9 +4933,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4863,18 +4947,18 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="E56" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="B57">
         <v>2</v>
       </c>
@@ -4885,13 +4969,13 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F57">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="B58">
         <v>3</v>
       </c>
@@ -4902,13 +4986,13 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F58">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -4931,9 +5015,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4945,18 +5029,18 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="E62" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="B63">
         <v>2</v>
       </c>
@@ -4967,13 +5051,13 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="B64">
         <v>3</v>
       </c>
@@ -4984,13 +5068,13 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="B65">
         <v>4</v>
       </c>
@@ -5001,13 +5085,13 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="B66">
         <v>5</v>
       </c>
@@ -5018,13 +5102,13 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F66">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -5047,9 +5131,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -5061,18 +5145,18 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F69">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="E70" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="B71">
         <v>2</v>
       </c>
@@ -5083,13 +5167,13 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F71">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="B72">
         <v>3</v>
       </c>
@@ -5100,13 +5184,13 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F72">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>35</v>
       </c>
@@ -5126,9 +5210,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -5140,15 +5224,15 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="E76" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="B77">
         <v>2</v>
       </c>
@@ -5159,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="B78">
         <v>3</v>
       </c>
@@ -5173,10 +5257,10 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="B79">
         <v>4</v>
       </c>
@@ -5187,10 +5271,10 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="B80">
         <v>5</v>
       </c>
@@ -5201,10 +5285,10 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -5224,9 +5308,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -5238,15 +5322,15 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="E84" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="B85">
         <v>2</v>
       </c>
@@ -5257,10 +5341,10 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="B86">
         <v>3</v>
       </c>
@@ -5271,10 +5355,10 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="B87">
         <v>4</v>
       </c>
@@ -5285,10 +5369,10 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="B88">
         <v>5</v>
       </c>
@@ -5299,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>35</v>
       </c>
@@ -5325,9 +5409,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -5339,18 +5423,18 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="E92" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F92">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="B93">
         <v>2</v>
       </c>
@@ -5361,13 +5445,13 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="B94">
         <v>3</v>
       </c>
@@ -5378,13 +5462,13 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F94">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>35</v>
       </c>
@@ -5407,9 +5491,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -5421,18 +5505,18 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="E98" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F98">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="B99">
         <v>2</v>
       </c>
@@ -5443,13 +5527,13 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F99">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="B100">
         <v>3</v>
       </c>
@@ -5460,13 +5544,13 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F100">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="B101">
         <v>4</v>
       </c>
@@ -5477,13 +5561,13 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F101">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="B102">
         <v>5</v>
       </c>
@@ -5494,7 +5578,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F102">
         <v>5</v>
@@ -5506,16 +5590,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G94"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -5535,9 +5619,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5549,15 +5633,15 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="E4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5">
         <v>2</v>
       </c>
@@ -5568,10 +5652,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6">
         <v>3</v>
       </c>
@@ -5582,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7">
         <v>4</v>
       </c>
@@ -5596,10 +5680,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8">
         <v>5</v>
       </c>
@@ -5610,10 +5694,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -5636,9 +5720,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5650,18 +5734,18 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="B13">
         <v>2</v>
       </c>
@@ -5672,13 +5756,13 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="B14">
         <v>3</v>
       </c>
@@ -5689,13 +5773,13 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="B15">
         <v>4</v>
       </c>
@@ -5706,13 +5790,13 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="B16">
         <v>5</v>
       </c>
@@ -5723,13 +5807,13 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5752,9 +5836,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5766,18 +5850,18 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="E20" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="B21">
         <v>2</v>
       </c>
@@ -5794,7 +5878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -5817,9 +5901,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5831,18 +5915,18 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="E25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="B26">
         <v>2</v>
       </c>
@@ -5853,13 +5937,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="B27">
         <v>3</v>
       </c>
@@ -5870,13 +5954,13 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -5899,9 +5983,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5913,18 +5997,18 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="E31" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="B32">
         <v>2</v>
       </c>
@@ -5935,13 +6019,13 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="B33">
         <v>3</v>
       </c>
@@ -5952,13 +6036,13 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -5981,9 +6065,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5995,18 +6079,18 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="E37" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="B38">
         <v>2</v>
       </c>
@@ -6017,13 +6101,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="B39">
         <v>3</v>
       </c>
@@ -6034,13 +6118,13 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -6063,9 +6147,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -6077,18 +6161,18 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="E43" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="B44">
         <v>2</v>
       </c>
@@ -6099,13 +6183,13 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="B45">
         <v>3</v>
       </c>
@@ -6116,13 +6200,13 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="B46">
         <v>4</v>
       </c>
@@ -6133,13 +6217,13 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -6162,9 +6246,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6176,18 +6260,18 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="E50" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="B51">
         <v>2</v>
       </c>
@@ -6198,13 +6282,13 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="B52">
         <v>3</v>
       </c>
@@ -6215,13 +6299,13 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="B53">
         <v>4</v>
       </c>
@@ -6232,13 +6316,13 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="B54">
         <v>5</v>
       </c>
@@ -6249,13 +6333,13 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F54">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -6275,9 +6359,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6289,15 +6373,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="E58" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="B59">
         <v>2</v>
       </c>
@@ -6308,10 +6392,10 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="B60">
         <v>3</v>
       </c>
@@ -6322,10 +6406,10 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="B61">
         <v>4</v>
       </c>
@@ -6336,10 +6420,10 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="B62">
         <v>5</v>
       </c>
@@ -6350,10 +6434,10 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="B63">
         <v>6</v>
       </c>
@@ -6364,10 +6448,10 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -6390,9 +6474,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -6404,18 +6488,18 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="E67" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="B68">
         <v>2</v>
       </c>
@@ -6426,13 +6510,13 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="B69">
         <v>3</v>
       </c>
@@ -6443,13 +6527,13 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F69">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -6469,9 +6553,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -6483,15 +6567,15 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="E73" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="B74">
         <v>2</v>
       </c>
@@ -6502,10 +6586,10 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="B75">
         <v>3</v>
       </c>
@@ -6516,10 +6600,10 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -6539,9 +6623,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -6553,15 +6637,15 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="E79" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="B80">
         <v>2</v>
       </c>
@@ -6572,10 +6656,10 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="B81">
         <v>3</v>
       </c>
@@ -6586,10 +6670,10 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="B82">
         <v>4</v>
       </c>
@@ -6600,10 +6684,10 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>35</v>
       </c>
@@ -6626,9 +6710,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6640,18 +6724,18 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F85">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="E86" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="B87">
         <v>2</v>
       </c>
@@ -6662,13 +6746,13 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F87">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>35</v>
       </c>
@@ -6691,9 +6775,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -6705,18 +6789,18 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F90">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="E91" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="B92">
         <v>2</v>
       </c>
@@ -6727,13 +6811,13 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F92">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="B93">
         <v>3</v>
       </c>
@@ -6744,13 +6828,13 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F93">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="B94">
         <v>4</v>
       </c>
@@ -6761,7 +6845,7 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F94">
         <v>4</v>

--- a/Assets/Resources/xml/BALANCE.xlsx
+++ b/Assets/Resources/xml/BALANCE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="4"/>
@@ -693,9 +693,6 @@
     <t>Пошкодження світлом +15% Зменшення захисту 1</t>
   </si>
   <si>
-    <t>Пошкодження світлом +25% Зменшення захисту 2</t>
-  </si>
-  <si>
     <t>Швидше світла</t>
   </si>
   <si>
@@ -708,9 +705,6 @@
     <t>Ухилення від атак +15% Ухилення від скілів +11% Шанс критичної атаки +15% Всі резісти -3</t>
   </si>
   <si>
-    <t>Ухилення від атак +20% Ухилення від скілів +15% Шанс критичної атаки +20% Всі резісти -3</t>
-  </si>
-  <si>
     <t>Вогняний кіготь</t>
   </si>
   <si>
@@ -762,12 +756,6 @@
     <t>Пошкодження 310 Вогонь по першій цілі 220 Вогонь по іншим цілям</t>
   </si>
   <si>
-    <t>Пошкодження 350 Вогонь по першій цілі 260 Вогонь по іншим цілям</t>
-  </si>
-  <si>
-    <t>Пошкодження 390 Вогонь по першій цілі 300 Вогонь по іншим цілям</t>
-  </si>
-  <si>
     <t>Лезо вітру</t>
   </si>
   <si>
@@ -807,24 +795,12 @@
     <t>Вивільнений потік</t>
   </si>
   <si>
-    <t>На всії ворогів ставиться мітка яка повністю забирає рандомний резіст мфтку можна зняти іншим типом зброї нанісши великиі пошкодження повітрям</t>
-  </si>
-  <si>
-    <t>Випадковий Резіст - 3 Пошкодження при знятті мітки  350 Повітря</t>
-  </si>
-  <si>
     <t>Випадковий Резіст - 3 Пошкодження при знятті мітки  300 Повітря</t>
   </si>
   <si>
     <t>Випадковий Резіст - 3 Пошкодження при знятті мітки  250 Повітря</t>
   </si>
   <si>
-    <t>Випадковий Резіст - 3 Пошкодження при знятті мітки  200 Повітря</t>
-  </si>
-  <si>
-    <t>Випадковий Резіст - 3 Пошкодження при знятті мітки  150 Повітря</t>
-  </si>
-  <si>
     <t>Блокування</t>
   </si>
   <si>
@@ -1147,13 +1123,37 @@
   </si>
   <si>
     <t>Пошкодження 270 Обездвиження 2 хіди</t>
+  </si>
+  <si>
+    <t>Пошкодження світлом +30% Зменшення захисту 2</t>
+  </si>
+  <si>
+    <t>Ухилення від атак +20% Ухилення від скілів +15% Шанс критичної атаки +20% Всі резісти -2</t>
+  </si>
+  <si>
+    <t>Пошкодження 360 Вогонь по першій цілі 260 Вогонь по іншим цілям</t>
+  </si>
+  <si>
+    <t>Пошкодження 410 Вогонь по першій цілі 300 Вогонь по іншим цілям</t>
+  </si>
+  <si>
+    <t>Випадковий Резіст - 2 Пошкодження при знятті мітки  150 Повітря</t>
+  </si>
+  <si>
+    <t>Випадковий Резіст - 2 Пошкодження при знятті мітки  200 Повітря</t>
+  </si>
+  <si>
+    <t>Випадковий Резіст - 4 Пошкодження при знятті мітки  350 Повітря</t>
+  </si>
+  <si>
+    <t>На всії ворогів ставиться мітка яка повністю забирає рандомний резіст мітку можна зняти іншим типом зброї нанісши великиі пошкодження повітрям</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1220,74 +1220,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1307,7 +1239,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="E9FFD5"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1342,7 +1274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1374,9 +1306,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1408,6 +1341,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1583,36 +1517,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1620,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1634,7 +1568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1645,7 +1579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1659,7 +1593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1680,14 +1614,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1695,20 +1629,20 @@
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1719,7 +1653,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" s="1"/>
@@ -1728,7 +1662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -1742,12 +1676,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -1762,12 +1696,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="D10" s="3"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1775,15 +1709,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1799,7 +1733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>92</v>
       </c>
@@ -1814,7 +1748,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="F17" t="s">
@@ -1823,7 +1757,7 @@
       <c r="H17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>93</v>
       </c>
@@ -1838,7 +1772,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="F19" t="s">
         <v>98</v>
@@ -1846,7 +1780,7 @@
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>97</v>
       </c>
@@ -1857,7 +1791,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1869,7 +1803,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>169</v>
       </c>
@@ -1886,13 +1820,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>170</v>
       </c>
@@ -1906,13 +1840,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="D26" s="1"/>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>171</v>
       </c>
@@ -1926,21 +1860,21 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1949,66 +1883,66 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G32" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" t="s">
         <v>269</v>
       </c>
-      <c r="D34" t="s">
-        <v>274</v>
-      </c>
-      <c r="G34" t="s">
-        <v>277</v>
-      </c>
       <c r="I34" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G36" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I36" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2018,16 +1952,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2047,9 +1981,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2061,10 +1995,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2084,7 +2018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2104,7 +2038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2124,7 +2058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2144,12 +2078,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2</v>
       </c>
@@ -2163,7 +2097,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3</v>
       </c>
@@ -2177,7 +2111,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4</v>
       </c>
@@ -2191,7 +2125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2211,7 +2145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2231,12 +2165,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2</v>
       </c>
@@ -2250,7 +2184,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2270,7 +2204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2290,12 +2224,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2</v>
       </c>
@@ -2309,7 +2243,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2329,7 +2263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2349,12 +2283,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2</v>
       </c>
@@ -2368,7 +2302,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>3</v>
       </c>
@@ -2382,7 +2316,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>4</v>
       </c>
@@ -2396,7 +2330,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2416,7 +2350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -2436,12 +2370,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>2</v>
       </c>
@@ -2455,7 +2389,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>3</v>
       </c>
@@ -2469,7 +2403,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>4</v>
       </c>
@@ -2483,7 +2417,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>5</v>
       </c>
@@ -2497,7 +2431,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -2517,7 +2451,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2537,7 +2471,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -2560,7 +2494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -2583,12 +2517,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2</v>
       </c>
@@ -2605,7 +2539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>3</v>
       </c>
@@ -2622,7 +2556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -2645,7 +2579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2668,12 +2602,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>2</v>
       </c>
@@ -2687,7 +2621,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3</v>
       </c>
@@ -2701,7 +2635,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -2724,7 +2658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -2747,7 +2681,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>83</v>
       </c>
@@ -2755,7 +2689,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>2</v>
       </c>
@@ -2769,7 +2703,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>3</v>
       </c>
@@ -2783,7 +2717,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>4</v>
       </c>
@@ -2797,7 +2731,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2820,7 +2754,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>32</v>
       </c>
@@ -2843,12 +2777,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2871,7 +2805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -2901,19 +2835,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="96" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2933,7 +2867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -2953,12 +2887,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2972,7 +2906,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2986,7 +2920,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -3000,7 +2934,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -3014,7 +2948,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3034,7 +2968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -3054,12 +2988,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
@@ -3073,7 +3007,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -3087,7 +3021,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>4</v>
       </c>
@@ -3101,7 +3035,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -3115,7 +3049,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3135,7 +3069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -3149,18 +3083,18 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
@@ -3171,10 +3105,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3</v>
       </c>
@@ -3185,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>4</v>
       </c>
@@ -3199,10 +3133,10 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3222,7 +3156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -3242,12 +3176,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2</v>
       </c>
@@ -3261,7 +3195,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>3</v>
       </c>
@@ -3275,7 +3209,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3298,7 +3232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -3321,12 +3255,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2</v>
       </c>
@@ -3337,13 +3271,13 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>3</v>
       </c>
@@ -3354,13 +3288,13 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3386,7 +3320,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -3409,12 +3343,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2</v>
       </c>
@@ -3425,13 +3359,13 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>3</v>
       </c>
@@ -3442,13 +3376,13 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F41">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -3471,7 +3405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -3494,12 +3428,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2</v>
       </c>
@@ -3510,13 +3444,13 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>3</v>
       </c>
@@ -3527,13 +3461,13 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -3553,7 +3487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -3573,12 +3507,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>2</v>
       </c>
@@ -3592,7 +3526,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3</v>
       </c>
@@ -3606,7 +3540,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>4</v>
       </c>
@@ -3620,7 +3554,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>5</v>
       </c>
@@ -3634,7 +3568,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -3657,7 +3591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>139</v>
       </c>
@@ -3680,12 +3614,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>2</v>
       </c>
@@ -3702,7 +3636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>3</v>
       </c>
@@ -3719,7 +3653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -3742,7 +3676,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>145</v>
       </c>
@@ -3765,12 +3699,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>2</v>
       </c>
@@ -3787,7 +3721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>3</v>
       </c>
@@ -3798,13 +3732,13 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F67">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>35</v>
       </c>
@@ -3824,7 +3758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -3838,18 +3772,18 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F70" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>2</v>
       </c>
@@ -3860,10 +3794,10 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>3</v>
       </c>
@@ -3874,10 +3808,10 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>4</v>
       </c>
@@ -3888,10 +3822,10 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>5</v>
       </c>
@@ -3902,10 +3836,10 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -3925,7 +3859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -3945,12 +3879,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>2</v>
       </c>
@@ -3964,7 +3898,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>3</v>
       </c>
@@ -3978,7 +3912,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>4</v>
       </c>
@@ -3992,7 +3926,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>5</v>
       </c>
@@ -4006,7 +3940,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -4029,7 +3963,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>158</v>
       </c>
@@ -4049,12 +3983,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>2</v>
       </c>
@@ -4065,13 +3999,13 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F88">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>3</v>
       </c>
@@ -4082,13 +4016,13 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F89">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -4111,7 +4045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -4131,12 +4065,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>2</v>
       </c>
@@ -4153,7 +4087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>3</v>
       </c>
@@ -4170,7 +4104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>4</v>
       </c>
@@ -4181,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F96">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>5</v>
       </c>
@@ -4198,7 +4132,7 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F97">
         <v>5</v>
@@ -4211,19 +4145,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="142.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -4243,7 +4177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -4260,12 +4194,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -4279,7 +4213,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -4293,7 +4227,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -4307,7 +4241,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -4321,7 +4255,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -4341,7 +4275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -4358,12 +4292,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
@@ -4377,7 +4311,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -4391,7 +4325,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>4</v>
       </c>
@@ -4405,7 +4339,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -4419,7 +4353,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4442,7 +4376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>196</v>
       </c>
@@ -4462,12 +4396,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
@@ -4484,7 +4418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3</v>
       </c>
@@ -4501,7 +4435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -4524,7 +4458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>200</v>
       </c>
@@ -4541,7 +4475,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>202</v>
       </c>
@@ -4549,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2</v>
       </c>
@@ -4566,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>3</v>
       </c>
@@ -4583,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>4</v>
       </c>
@@ -4600,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>5</v>
       </c>
@@ -4617,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -4640,7 +4574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>172</v>
       </c>
@@ -4660,12 +4594,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>2</v>
       </c>
@@ -4682,7 +4616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>3</v>
       </c>
@@ -4699,7 +4633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -4719,7 +4653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -4727,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4736,17 +4670,17 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4755,12 +4689,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -4769,12 +4703,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4783,12 +4717,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>5</v>
       </c>
       <c r="C44">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -4797,12 +4731,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -4811,7 +4745,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -4834,7 +4768,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>219</v>
       </c>
@@ -4842,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -4851,7 +4785,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>221</v>
       </c>
@@ -4859,12 +4793,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -4876,41 +4810,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>222</v>
       </c>
       <c r="F51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>4</v>
       </c>
       <c r="C52">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="F52">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -4933,9 +4867,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4947,18 +4881,18 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
         <v>226</v>
       </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="E56" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>2</v>
       </c>
@@ -4969,13 +4903,13 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>3</v>
       </c>
@@ -4986,13 +4920,13 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>229</v>
+        <v>369</v>
       </c>
       <c r="F58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -5015,100 +4949,100 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
         <v>230</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>40</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>80</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="E62" t="s">
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>100</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
         <v>232</v>
       </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="B63">
-        <v>2</v>
-      </c>
-      <c r="C63">
-        <v>60</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>233</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="B64">
-        <v>3</v>
-      </c>
-      <c r="C64">
-        <v>80</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>234</v>
-      </c>
       <c r="F64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>4</v>
       </c>
       <c r="C65">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>5</v>
       </c>
       <c r="C66">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -5131,9 +5065,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -5145,18 +5079,18 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>2</v>
       </c>
@@ -5167,13 +5101,13 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>3</v>
       </c>
@@ -5181,16 +5115,16 @@
         <v>160</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>35</v>
       </c>
@@ -5210,9 +5144,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -5224,15 +5158,15 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>2</v>
       </c>
@@ -5243,10 +5177,10 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>3</v>
       </c>
@@ -5257,10 +5191,10 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>4</v>
       </c>
@@ -5271,10 +5205,10 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>5</v>
       </c>
@@ -5285,10 +5219,10 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -5308,9 +5242,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -5322,15 +5256,15 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>2</v>
       </c>
@@ -5341,10 +5275,10 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>3</v>
       </c>
@@ -5355,10 +5289,10 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>4</v>
       </c>
@@ -5369,10 +5303,10 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>5</v>
       </c>
@@ -5383,10 +5317,10 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>35</v>
       </c>
@@ -5409,9 +5343,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -5423,18 +5357,18 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F92">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>2</v>
       </c>
@@ -5445,13 +5379,13 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>3</v>
       </c>
@@ -5459,16 +5393,16 @@
         <v>200</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>35</v>
       </c>
@@ -5491,9 +5425,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -5505,18 +5439,18 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>267</v>
+        <v>372</v>
       </c>
       <c r="F98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>2</v>
       </c>
@@ -5527,13 +5461,13 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>266</v>
+        <v>373</v>
       </c>
       <c r="F99">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>3</v>
       </c>
@@ -5544,13 +5478,13 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>4</v>
       </c>
@@ -5561,13 +5495,13 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>5</v>
       </c>
@@ -5578,10 +5512,10 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>263</v>
+        <v>374</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5590,16 +5524,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G94"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -5619,9 +5553,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5633,15 +5567,15 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -5652,10 +5586,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -5666,10 +5600,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -5680,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -5694,10 +5628,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -5720,9 +5654,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5734,18 +5668,18 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
@@ -5756,13 +5690,13 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -5773,13 +5707,13 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>4</v>
       </c>
@@ -5790,13 +5724,13 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -5807,13 +5741,13 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5836,9 +5770,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5850,18 +5784,18 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
@@ -5878,7 +5812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -5901,9 +5835,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5915,18 +5849,18 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2</v>
       </c>
@@ -5937,13 +5871,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>3</v>
       </c>
@@ -5954,13 +5888,13 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -5983,9 +5917,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5997,18 +5931,18 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2</v>
       </c>
@@ -6019,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>3</v>
       </c>
@@ -6036,13 +5970,13 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -6065,9 +5999,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -6079,18 +6013,18 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>2</v>
       </c>
@@ -6101,13 +6035,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>3</v>
       </c>
@@ -6118,13 +6052,13 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -6147,9 +6081,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -6161,18 +6095,18 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2</v>
       </c>
@@ -6183,13 +6117,13 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>3</v>
       </c>
@@ -6200,13 +6134,13 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>4</v>
       </c>
@@ -6217,13 +6151,13 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -6246,9 +6180,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6260,18 +6194,18 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>2</v>
       </c>
@@ -6282,13 +6216,13 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>3</v>
       </c>
@@ -6299,13 +6233,13 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>4</v>
       </c>
@@ -6316,13 +6250,13 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>5</v>
       </c>
@@ -6333,13 +6267,13 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F54">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -6359,9 +6293,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6373,15 +6307,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>2</v>
       </c>
@@ -6392,10 +6326,10 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>3</v>
       </c>
@@ -6406,10 +6340,10 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>4</v>
       </c>
@@ -6420,10 +6354,10 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>5</v>
       </c>
@@ -6434,10 +6368,10 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>6</v>
       </c>
@@ -6448,10 +6382,10 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -6474,9 +6408,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -6488,18 +6422,18 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>2</v>
       </c>
@@ -6510,13 +6444,13 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>3</v>
       </c>
@@ -6527,13 +6461,13 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F69">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -6553,9 +6487,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -6567,15 +6501,15 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>2</v>
       </c>
@@ -6586,10 +6520,10 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>3</v>
       </c>
@@ -6600,10 +6534,10 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -6623,9 +6557,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -6637,15 +6571,15 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>2</v>
       </c>
@@ -6656,10 +6590,10 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>3</v>
       </c>
@@ -6670,10 +6604,10 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>4</v>
       </c>
@@ -6684,10 +6618,10 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>35</v>
       </c>
@@ -6710,9 +6644,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6724,18 +6658,18 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F85">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>2</v>
       </c>
@@ -6746,13 +6680,13 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F87">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>35</v>
       </c>
@@ -6775,9 +6709,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -6789,18 +6723,18 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F90">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>2</v>
       </c>
@@ -6811,13 +6745,13 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F92">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>3</v>
       </c>
@@ -6828,13 +6762,13 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F93">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>4</v>
       </c>
@@ -6845,7 +6779,7 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F94">
         <v>4</v>

--- a/Assets/Resources/xml/BALANCE.xlsx
+++ b/Assets/Resources/xml/BALANCE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="375">
   <si>
     <t>Параметри</t>
   </si>
@@ -381,9 +381,6 @@
     <t>1) SelectTarget 2) Do Damage 3) Check death (if Y add 1AP to User)</t>
   </si>
   <si>
-    <t>Пошкодження 140 Фізичний</t>
-  </si>
-  <si>
     <t>Атака яка помічає ціль міткою яку можна збити іншим типом зброї нанесши додаткові пошкодження</t>
   </si>
   <si>
@@ -861,9 +858,6 @@
     <t>Шанс блоку 25%</t>
   </si>
   <si>
-    <t>Атака по області в 3 горизонтальних клітинки з дебафом кровотечі</t>
-  </si>
-  <si>
     <t>Пошкодження 75 Фізичний Кровотеча 25% від атаки</t>
   </si>
   <si>
@@ -876,21 +870,6 @@
     <t>Якщо цією атакою добити ворога то можна приплюсувати його резісти до свої на деякий час</t>
   </si>
   <si>
-    <t>Пошкодження 100 Фізичний</t>
-  </si>
-  <si>
-    <t>Кожен удар збільшує шанс критичної атаки і критичні пошкодження але зменшує шанс контратаки блокування і ухилення</t>
-  </si>
-  <si>
-    <t>Шанс критичної атаки +8% за удар критичні пошкодження +10% за удар - шанси блоку ухилення і контратаки -2% за удар</t>
-  </si>
-  <si>
-    <t>Шанс критичної атаки +5% за удар +5% за удар - шанси блоку ухилення і контратаки -3% за удар</t>
-  </si>
-  <si>
-    <t>Шанс критичної атаки +12% за удар +15% за удар - шанси блоку ухилення і контратаки -1% за удар</t>
-  </si>
-  <si>
     <t xml:space="preserve">Жатва </t>
   </si>
   <si>
@@ -924,18 +903,9 @@
     <t>Під кінець часу дії ворог вмирає атакуючи всіх навколо енергією смерті</t>
   </si>
   <si>
-    <t>Пошкодження 80 Смерть</t>
-  </si>
-  <si>
     <t>Пошкодження 100 Смерть</t>
   </si>
   <si>
-    <t>Пошкодження 120 Смерть</t>
-  </si>
-  <si>
-    <t>Пошкодження 140 Смерть</t>
-  </si>
-  <si>
     <t>Збільшення деяких резістів регенерація і пошкодження смертю всіх ворогів протягом часу дії</t>
   </si>
   <si>
@@ -954,9 +924,6 @@
     <t>Пошкодження 180 Смерть; Смерть +2 Фізичний +2 Світло +2 Вода + 1 Вогонь +1 ; Регенерацыя 170</t>
   </si>
   <si>
-    <t>Пошкодження 175 Фізичний Кровотеча 40% від атаки</t>
-  </si>
-  <si>
     <t>Пошкодження 150 Фізичний Кровотеча 34% від атаки</t>
   </si>
   <si>
@@ -999,30 +966,12 @@
     <t>Гігантські пошкодження блискавкою по всім ворогам на полі</t>
   </si>
   <si>
-    <t>Пошкодження 200 Блискавка</t>
-  </si>
-  <si>
-    <t>Пошкодження 240 Блискавка</t>
-  </si>
-  <si>
-    <t>Пошкодження 280 Блискавка</t>
-  </si>
-  <si>
     <t>Атака життям по площы з выдновленням здоров'я героя Площа 9</t>
   </si>
   <si>
     <t>Пошкодження 60 Життя Відхілювання 70% від атаки</t>
   </si>
   <si>
-    <t>Пошкодження 80 Життя Відхілювання 90% від атаки</t>
-  </si>
-  <si>
-    <t>Пошкодження 100 Життя Відхілювання 110% від атаки</t>
-  </si>
-  <si>
-    <t>Пошкодження 120 Життя Відхілювання 130% від атаки</t>
-  </si>
-  <si>
     <t>Збільшує резіст до того типу пошкоджень який наноситься герою протягом часу дії</t>
   </si>
   <si>
@@ -1035,18 +984,9 @@
     <t>Є шанс що ворог при своїй атаці отримує параліч і отруєння; Також при атаці ворог отримує пошкодженн життям</t>
   </si>
   <si>
-    <t>Шанс на параліч і отруєння 10%; Час дыъ паралічу 2 Отруєння 40 Життя на 2; Пошкодження 60 Життя</t>
-  </si>
-  <si>
     <t>Шанс на параліч і отруєння 14%; Час дії паралічу 2 Отруєння 60 Життя на 2; Пошкодження 80 Життя</t>
   </si>
   <si>
-    <t>Шанс на параліч і отруєння 18%; Час дії паралічу 2 Отруєння 80 Життя на 2; Пошкодження 80 Життя</t>
-  </si>
-  <si>
-    <t>Шанс на параліч і отруєння 22%; Час дії паралічу 3 Отруєння 100 Життя на 2; Пошкодження 100 Життя</t>
-  </si>
-  <si>
     <t>Переозброєння</t>
   </si>
   <si>
@@ -1147,6 +1087,63 @@
   </si>
   <si>
     <t>На всії ворогів ставиться мітка яка повністю забирає рандомний резіст мітку можна зняти іншим типом зброї нанісши великиі пошкодження повітрям</t>
+  </si>
+  <si>
+    <t>Атака по області в 3 горизонтальних і 2  вертикальних клітинки з дебафом кровотечі</t>
+  </si>
+  <si>
+    <t>Пошкодження 175 Фізичний Кровотеча 37% від атаки</t>
+  </si>
+  <si>
+    <t>Пошкодження 220 Фізичний</t>
+  </si>
+  <si>
+    <t>Шанс критичної атаки +5%  критичні пошкодження за удар +10% за удар - шанси блоку ухилення і контратаки -3% за удар</t>
+  </si>
+  <si>
+    <t>Шанс критичної атаки +10% критичні пошкодження за удар +20% - шанси блоку ухилення і контратаки -2% за удар</t>
+  </si>
+  <si>
+    <t>Шанс критичної атаки +15% за удар критичні пошкодження за удар +30%- шанси блоку ухилення і контратаки -1% за удар</t>
+  </si>
+  <si>
+    <t>збільшується шанс критичної атаки і кожен удар збільшує критичні пошкодження але зменшує шанс контратаки блокування і ухилення</t>
+  </si>
+  <si>
+    <t>Пошкодження 150 Смерть</t>
+  </si>
+  <si>
+    <t>Пошкодження 200 Смерть</t>
+  </si>
+  <si>
+    <t>Пошкодження 250 Смерть</t>
+  </si>
+  <si>
+    <t>Пошкодження 300 Блискавка</t>
+  </si>
+  <si>
+    <t>Пошкодження 350 Блискавка</t>
+  </si>
+  <si>
+    <t>Пошкодження 250 Блискавка</t>
+  </si>
+  <si>
+    <t>Пошкодження 80 Життя Відхілювання 80% від атаки</t>
+  </si>
+  <si>
+    <t>Пошкодження 100 Життя Відхілювання 90% від атаки</t>
+  </si>
+  <si>
+    <t>Пошкодження 120 Життя Відхілювання 100% від атаки</t>
+  </si>
+  <si>
+    <t>Шанс на параліч і отруєння 10%; Час дії паралічу 2 Отруєння 40 Життя на 2; Пошкодження 60 Життя</t>
+  </si>
+  <si>
+    <t>Шанс на параліч і отруєння 18%; Час дії паралічу 2 Отруєння 80 Життя на 2; Пошкодження 100 Життя</t>
+  </si>
+  <si>
+    <t>Шанс на параліч і отруєння 22%; Час дії паралічу 3 Отруєння 100 Життя на 2; Пошкодження 120 Життя</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1633,7 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -1797,7 +1794,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1805,16 +1802,16 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M23">
         <v>14</v>
@@ -1828,16 +1825,16 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -1848,16 +1845,16 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -1865,7 +1862,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -1874,7 +1871,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1885,16 +1882,16 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -1905,16 +1902,16 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1925,16 +1922,16 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -1942,7 +1939,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +1980,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1995,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2167,7 +2164,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2181,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2632,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3083,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -3091,7 +3088,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3105,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3119,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3133,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3170,15 +3167,15 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3192,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3206,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3226,7 +3223,7 @@
         <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -3246,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -3257,7 +3254,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3271,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -3288,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -3311,13 +3308,13 @@
         <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
       </c>
       <c r="J37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3334,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -3345,7 +3342,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3359,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -3376,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -3399,7 +3396,7 @@
         <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G43" t="s">
         <v>39</v>
@@ -3419,18 +3416,18 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
         <v>130</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3444,7 +3441,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -3461,7 +3458,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -3501,15 +3498,15 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" t="s">
         <v>132</v>
-      </c>
-      <c r="F50" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3523,7 +3520,7 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3537,7 +3534,7 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3551,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3565,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3585,7 +3582,7 @@
         <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G57" t="s">
         <v>39</v>
@@ -3593,7 +3590,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3605,18 +3602,18 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
         <v>140</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-      <c r="G58" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3630,7 +3627,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -3647,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -3670,7 +3667,7 @@
         <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G63" t="s">
         <v>39</v>
@@ -3678,7 +3675,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3690,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F64">
         <v>3</v>
@@ -3701,7 +3698,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3715,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F66">
         <v>3</v>
@@ -3732,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="F67">
         <v>4</v>
@@ -3772,15 +3769,15 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="F70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3794,7 +3791,7 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3808,7 +3805,7 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3822,7 +3819,7 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3836,7 +3833,7 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3873,15 +3870,15 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3895,7 +3892,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3909,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3923,7 +3920,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3937,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3957,7 +3954,7 @@
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -3965,7 +3962,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3977,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F86">
         <v>3</v>
@@ -3985,7 +3982,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3999,7 +3996,7 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="F88">
         <v>3</v>
@@ -4016,7 +4013,7 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="F89">
         <v>4</v>
@@ -4039,7 +4036,7 @@
         <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G91" t="s">
         <v>39</v>
@@ -4059,7 +4056,7 @@
         <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F92">
         <v>4</v>
@@ -4067,7 +4064,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4081,7 +4078,7 @@
         <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F94">
         <v>4</v>
@@ -4098,7 +4095,7 @@
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F95">
         <v>4</v>
@@ -4115,7 +4112,7 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="F96">
         <v>5</v>
@@ -4132,7 +4129,7 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="F97">
         <v>5</v>
@@ -4148,7 +4145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
@@ -4179,24 +4176,24 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>182</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4210,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4224,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4238,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4252,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4277,7 +4274,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4289,12 +4286,12 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4308,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4322,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4336,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4350,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4370,7 +4367,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
         <v>39</v>
@@ -4378,7 +4375,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4390,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -4398,7 +4395,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4412,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -4429,7 +4426,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -4452,7 +4449,7 @@
         <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -4460,7 +4457,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4472,12 +4469,12 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -4494,7 +4491,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -4511,7 +4508,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -4528,7 +4525,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4545,7 +4542,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4568,7 +4565,7 @@
         <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
@@ -4576,7 +4573,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4588,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -4596,7 +4593,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4610,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -4627,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -4655,7 +4652,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4667,12 +4664,12 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4686,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4700,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4714,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4728,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4742,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4762,7 +4759,7 @@
         <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4770,7 +4767,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4782,12 +4779,12 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -4804,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -4821,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -4838,7 +4835,7 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -4861,7 +4858,7 @@
         <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G54" t="s">
         <v>39</v>
@@ -4869,7 +4866,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4881,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F55">
         <v>3</v>
@@ -4889,7 +4886,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4903,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -4920,7 +4917,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -4943,7 +4940,7 @@
         <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G60" t="s">
         <v>39</v>
@@ -4951,7 +4948,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4963,12 +4960,12 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -4985,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -5002,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F64">
         <v>3</v>
@@ -5019,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -5036,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F66">
         <v>4</v>
@@ -5059,7 +5056,7 @@
         <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -5067,7 +5064,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -5079,7 +5076,7 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F69">
         <v>3</v>
@@ -5087,7 +5084,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5101,7 +5098,7 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F71">
         <v>3</v>
@@ -5118,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F72">
         <v>3</v>
@@ -5146,7 +5143,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -5158,12 +5155,12 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -5177,7 +5174,7 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -5191,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -5205,7 +5202,7 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5219,7 +5216,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -5244,7 +5241,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -5256,12 +5253,12 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -5275,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5289,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -5303,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -5317,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -5337,7 +5334,7 @@
         <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G90" t="s">
         <v>39</v>
@@ -5345,7 +5342,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -5357,12 +5354,12 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -5379,7 +5376,7 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -5396,7 +5393,7 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -5419,7 +5416,7 @@
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -5427,7 +5424,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -5439,12 +5436,12 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="F98">
         <v>3</v>
@@ -5461,7 +5458,7 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="F99">
         <v>3</v>
@@ -5478,7 +5475,7 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F100">
         <v>3</v>
@@ -5495,7 +5492,7 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F101">
         <v>3</v>
@@ -5512,7 +5509,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="F102">
         <v>4</v>
@@ -5527,11 +5524,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G94"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="116" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5555,7 +5555,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5567,12 +5567,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5648,7 +5648,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
         <v>39</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5665,15 +5665,15 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -5690,7 +5690,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -5707,7 +5707,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -5724,10 +5724,10 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5738,13 +5738,13 @@
         <v>160</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5764,7 +5764,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
         <v>39</v>
@@ -5772,24 +5772,24 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -5800,16 +5800,16 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>358</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -5829,7 +5829,7 @@
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5846,10 +5846,10 @@
         <v>150</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>286</v>
+        <v>362</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5868,10 +5868,10 @@
         <v>200</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>287</v>
+        <v>360</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -5888,10 +5888,10 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>289</v>
+        <v>361</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -5911,7 +5911,7 @@
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" t="s">
         <v>39</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5931,12 +5931,12 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5947,13 +5947,13 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5964,13 +5964,13 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5993,7 +5993,7 @@
         <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -6001,7 +6001,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -6013,15 +6013,15 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6035,10 +6035,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6052,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -6075,7 +6075,7 @@
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -6095,12 +6095,12 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -6117,7 +6117,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -6134,7 +6134,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -6151,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -6174,7 +6174,7 @@
         <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G48" t="s">
         <v>39</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6194,12 +6194,12 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -6216,7 +6216,7 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -6233,7 +6233,7 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -6250,10 +6250,10 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6267,7 +6267,7 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6307,12 +6307,12 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6326,7 +6326,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6340,7 +6340,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6354,7 +6354,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6368,7 +6368,7 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6382,7 +6382,7 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -6402,7 +6402,7 @@
         <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G65" t="s">
         <v>39</v>
@@ -6410,7 +6410,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -6422,7 +6422,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F66">
         <v>3</v>
@@ -6430,7 +6430,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -6444,7 +6444,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F68">
         <v>3</v>
@@ -6461,7 +6461,7 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F69">
         <v>3</v>
@@ -6489,7 +6489,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -6501,12 +6501,12 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -6514,13 +6514,13 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D74">
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -6528,13 +6528,13 @@
         <v>3</v>
       </c>
       <c r="C75">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -6559,24 +6559,24 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -6584,13 +6584,13 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -6598,13 +6598,13 @@
         <v>3</v>
       </c>
       <c r="C81">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -6612,13 +6612,13 @@
         <v>4</v>
       </c>
       <c r="C82">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -6638,7 +6638,7 @@
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G84" t="s">
         <v>39</v>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6658,15 +6658,15 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -6680,7 +6680,7 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="F87">
         <v>3</v>
@@ -6703,7 +6703,7 @@
         <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G89" t="s">
         <v>39</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -6723,7 +6723,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="F90">
         <v>3</v>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -6745,7 +6745,7 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="F92">
         <v>3</v>
@@ -6762,7 +6762,7 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="F93">
         <v>3</v>
@@ -6779,7 +6779,7 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="F94">
         <v>4</v>

--- a/Assets/Resources/xml/BALANCE.xlsx
+++ b/Assets/Resources/xml/BALANCE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="587" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1952,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2835,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4146,7 +4146,7 @@
   <dimension ref="A2:G102"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5524,7 +5524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E86" workbookViewId="0">
       <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/xml/BALANCE.xlsx
+++ b/Assets/Resources/xml/BALANCE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="587" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="587" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1614,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,7 +1656,7 @@
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
       <c r="J6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -1702,17 +1702,20 @@
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
+      <c r="G12" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
@@ -1952,11 +1955,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="158.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2835,7 +2841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
@@ -5524,7 +5530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E86" workbookViewId="0">
+    <sheetView topLeftCell="E86" workbookViewId="0">
       <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/xml/BALANCE.xlsx
+++ b/Assets/Resources/xml/BALANCE.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Катари" sheetId="5" r:id="rId5"/>
     <sheet name="Коса" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1953,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G67"/>
+  <dimension ref="A2:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,6 +2831,38 @@
         <v>76</v>
       </c>
     </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f>B69+B70+B71+B72</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f>120*5</f>
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -2839,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J97"/>
+  <dimension ref="A2:J100"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4141,6 +4173,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4149,10 +4186,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G102"/>
+  <dimension ref="A2:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5521,6 +5558,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5528,10 +5570,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G94"/>
+  <dimension ref="A2:G96"/>
   <sheetViews>
-    <sheetView topLeftCell="E86" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6791,6 +6833,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Resources/xml/BALANCE.xlsx
+++ b/Assets/Resources/xml/BALANCE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="587" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="7545" tabRatio="587" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="376">
   <si>
     <t>Параметри</t>
   </si>
@@ -414,27 +414,9 @@
     <t>User.AddEffect</t>
   </si>
   <si>
-    <t>Потужна атака землею по одній цілі - всім сусіднім наноситься частина пошкодженбь</t>
-  </si>
-  <si>
     <t>1) SelectTarget 2) Check Additional targets 3) Do damage</t>
   </si>
   <si>
-    <t>Пошкодження 260 Земля - 60% Іншим цылям</t>
-  </si>
-  <si>
-    <t>Пошкодження 180 Земля - 50% Іншим цылям</t>
-  </si>
-  <si>
-    <t>Пошкодження 220 Земля - 55% Іншим цылям</t>
-  </si>
-  <si>
-    <t>Пошкодження 300 Земля - 65% Іншим цылям</t>
-  </si>
-  <si>
-    <t>Пошкодження 340 Земля - 70% Іншим цылям</t>
-  </si>
-  <si>
     <t>Водяна Тюрьма</t>
   </si>
   <si>
@@ -501,9 +483,6 @@
     <t>Атака -20% Захист темряви -1 Фз захист -1 Захист Життя -1</t>
   </si>
   <si>
-    <t>Демон темряви атакую кжен хід рандомного ворога обездвижуючи його</t>
-  </si>
-  <si>
     <t>Пошкодження 150 Обездвиження 1 хід</t>
   </si>
   <si>
@@ -621,9 +600,6 @@
     <t>Вбивство</t>
   </si>
   <si>
-    <t>Потужна атака яка при вбивстві дає модифікатор пошкоджень і відновлю ХП гравця</t>
-  </si>
-  <si>
     <t>Пошкодження 120 Фізичний Відновлення 30% від пошкоджень Модифікатор пошкоджень +10%</t>
   </si>
   <si>
@@ -966,9 +942,6 @@
     <t>Гігантські пошкодження блискавкою по всім ворогам на полі</t>
   </si>
   <si>
-    <t>Атака життям по площы з выдновленням здоров'я героя Площа 9</t>
-  </si>
-  <si>
     <t>Пошкодження 60 Життя Відхілювання 70% від атаки</t>
   </si>
   <si>
@@ -1144,6 +1117,36 @@
   </si>
   <si>
     <t>Шанс на параліч і отруєння 22%; Час дії паралічу 3 Отруєння 100 Життя на 2; Пошкодження 120 Життя</t>
+  </si>
+  <si>
+    <t>Потужна атака землею по одній цілі - всім сусіднім наноситься частина пошкоджень</t>
+  </si>
+  <si>
+    <t>Пошкодження 180 Земля - 50% Іншим цілям</t>
+  </si>
+  <si>
+    <t>Пошкодження 220 Земля - 55% Іншим цілям</t>
+  </si>
+  <si>
+    <t>Пошкодження 260 Земля - 60% Іншим цілям</t>
+  </si>
+  <si>
+    <t>Пошкодження 300 Земля - 65% Іншим цілям</t>
+  </si>
+  <si>
+    <t>Пошкодження 340 Земля - 70% Іншим цілям</t>
+  </si>
+  <si>
+    <t>Демон темряви атакую кожен хід рандомного ворога обездвижуючи його</t>
+  </si>
+  <si>
+    <t>Потужна атака яка при вбивстві дає модифікатор пошкоджень і відновлює ХП гравця</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Перезарядка</t>
+  </si>
+  <si>
+    <t>Атака життям по площы з відновленням здоров'я героя Площа 9</t>
   </si>
 </sst>
 </file>
@@ -1204,13 +1207,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1633,7 +1639,7 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -1797,7 +1803,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1805,16 +1811,16 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" t="s">
         <v>168</v>
       </c>
-      <c r="D23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" t="s">
-        <v>175</v>
-      </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M23">
         <v>14</v>
@@ -1828,16 +1834,16 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" t="s">
         <v>169</v>
       </c>
-      <c r="D25" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" t="s">
-        <v>176</v>
-      </c>
       <c r="I25" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -1848,16 +1854,16 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" t="s">
-        <v>177</v>
-      </c>
       <c r="I27" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -1865,7 +1871,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -1874,7 +1880,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1885,16 +1891,16 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D32" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -1905,16 +1911,16 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" t="s">
+        <v>257</v>
+      </c>
+      <c r="G34" t="s">
         <v>260</v>
       </c>
-      <c r="D34" t="s">
-        <v>265</v>
-      </c>
-      <c r="G34" t="s">
-        <v>268</v>
-      </c>
       <c r="I34" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1925,16 +1931,16 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="I36" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -1942,7 +1948,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -1953,18 +1959,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G74"/>
+  <dimension ref="A2:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="158.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1978,15 +1990,18 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1997,11 +2012,14 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2015,13 +2033,16 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2034,14 +2055,17 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2055,13 +2079,16 @@
         <v>37</v>
       </c>
       <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2074,19 +2101,22 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2</v>
       </c>
@@ -2096,11 +2126,11 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3</v>
       </c>
@@ -2110,11 +2140,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4</v>
       </c>
@@ -2124,11 +2154,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2142,13 +2172,16 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2161,19 +2194,22 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2</v>
       </c>
@@ -2183,11 +2219,11 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2201,13 +2237,16 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2220,19 +2259,22 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2</v>
       </c>
@@ -2242,11 +2284,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2260,13 +2302,16 @@
         <v>37</v>
       </c>
       <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2279,19 +2324,22 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2</v>
       </c>
@@ -2301,11 +2349,11 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>3</v>
       </c>
@@ -2315,11 +2363,11 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>4</v>
       </c>
@@ -2329,11 +2377,11 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2347,13 +2395,16 @@
         <v>37</v>
       </c>
       <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -2366,19 +2417,22 @@
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>2</v>
       </c>
@@ -2388,11 +2442,11 @@
       <c r="D35">
         <v>2</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>3</v>
       </c>
@@ -2402,11 +2456,11 @@
       <c r="D36">
         <v>2</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>4</v>
       </c>
@@ -2416,11 +2470,11 @@
       <c r="D37">
         <v>2</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>5</v>
       </c>
@@ -2430,11 +2484,11 @@
       <c r="D38">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -2448,13 +2502,16 @@
         <v>37</v>
       </c>
       <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2467,14 +2524,17 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -2488,16 +2548,19 @@
         <v>37</v>
       </c>
       <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>75</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -2510,22 +2573,25 @@
       <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2</v>
       </c>
@@ -2535,14 +2601,14 @@
       <c r="D46">
         <v>2</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>3</v>
       </c>
@@ -2552,14 +2618,14 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -2573,16 +2639,19 @@
         <v>37</v>
       </c>
       <c r="E49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>75</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2595,22 +2664,25 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F51" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>2</v>
       </c>
@@ -2620,11 +2692,14 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3</v>
       </c>
@@ -2634,11 +2709,14 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -2652,16 +2730,19 @@
         <v>37</v>
       </c>
       <c r="E55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>75</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -2674,67 +2755,70 @@
       <c r="D56" t="s">
         <v>80</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>81</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E57" t="s">
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="F57" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>4</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2748,16 +2832,19 @@
         <v>37</v>
       </c>
       <c r="E62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>75</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>32</v>
       </c>
@@ -2770,22 +2857,25 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>4</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E64" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2799,16 +2889,19 @@
         <v>37</v>
       </c>
       <c r="E66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>75</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -2821,43 +2914,46 @@
       <c r="D67" t="s">
         <v>89</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73">
         <f>B69+B70+B71+B72</f>
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C74">
         <f>120*5</f>
         <v>600</v>
@@ -2871,18 +2967,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J100"/>
+  <dimension ref="A2:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="96" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2896,13 +2996,16 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -2915,19 +3018,22 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2937,11 +3043,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2951,11 +3057,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2965,11 +3071,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -2979,11 +3085,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -2997,13 +3103,16 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -3016,19 +3125,22 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
@@ -3038,11 +3150,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -3052,11 +3164,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>4</v>
       </c>
@@ -3066,11 +3178,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -3080,11 +3192,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3098,13 +3210,16 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -3117,19 +3232,22 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
-        <v>324</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
@@ -3139,11 +3257,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3</v>
       </c>
@@ -3153,11 +3271,11 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>4</v>
       </c>
@@ -3167,11 +3285,11 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3185,13 +3303,16 @@
         <v>37</v>
       </c>
       <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -3204,19 +3325,22 @@
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2</v>
       </c>
@@ -3226,11 +3350,11 @@
       <c r="D28">
         <v>2</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>3</v>
       </c>
@@ -3240,11 +3364,11 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3258,16 +3382,19 @@
         <v>37</v>
       </c>
       <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>125</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -3280,22 +3407,25 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F33" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2</v>
       </c>
@@ -3305,14 +3435,14 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
-        <v>330</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>3</v>
       </c>
@@ -3322,14 +3452,14 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3343,19 +3473,22 @@
         <v>37</v>
       </c>
       <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>125</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>39</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -3368,22 +3501,25 @@
       <c r="D38">
         <v>3</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F39" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2</v>
       </c>
@@ -3393,14 +3529,14 @@
       <c r="D40">
         <v>3</v>
       </c>
-      <c r="E40" t="s">
-        <v>333</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F40" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>3</v>
       </c>
@@ -3410,14 +3546,14 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41" t="s">
-        <v>334</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F41" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -3431,16 +3567,19 @@
         <v>37</v>
       </c>
       <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>125</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -3453,22 +3592,25 @@
       <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F45" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2</v>
       </c>
@@ -3478,14 +3620,14 @@
       <c r="D46">
         <v>2</v>
       </c>
-      <c r="E46" t="s">
-        <v>337</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F46" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>3</v>
       </c>
@@ -3495,14 +3637,14 @@
       <c r="D47">
         <v>2</v>
       </c>
-      <c r="E47" t="s">
-        <v>335</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -3516,13 +3658,16 @@
         <v>37</v>
       </c>
       <c r="E49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -3535,19 +3680,22 @@
       <c r="D50">
         <v>2</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G50" t="s">
         <v>131</v>
       </c>
-      <c r="F50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>2</v>
       </c>
@@ -3557,11 +3705,11 @@
       <c r="D52">
         <v>2</v>
       </c>
-      <c r="E52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F52" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3</v>
       </c>
@@ -3571,11 +3719,11 @@
       <c r="D53">
         <v>2</v>
       </c>
-      <c r="E53" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>4</v>
       </c>
@@ -3585,11 +3733,11 @@
       <c r="D54">
         <v>2</v>
       </c>
-      <c r="E54" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F54" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>5</v>
       </c>
@@ -3599,11 +3747,11 @@
       <c r="D55">
         <v>2</v>
       </c>
-      <c r="E55" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F55" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -3617,18 +3765,21 @@
         <v>37</v>
       </c>
       <c r="E57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>125</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3639,22 +3790,25 @@
       <c r="D58">
         <v>2</v>
       </c>
-      <c r="E58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-      <c r="G58" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E59" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F59" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>2</v>
       </c>
@@ -3664,14 +3818,14 @@
       <c r="D60">
         <v>2</v>
       </c>
-      <c r="E60" t="s">
-        <v>142</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F60" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>3</v>
       </c>
@@ -3681,14 +3835,14 @@
       <c r="D61">
         <v>2</v>
       </c>
-      <c r="E61" t="s">
-        <v>143</v>
-      </c>
-      <c r="F61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F61" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -3702,18 +3856,21 @@
         <v>37</v>
       </c>
       <c r="E63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>125</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3724,22 +3881,25 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" t="s">
-        <v>145</v>
-      </c>
-      <c r="F64">
-        <v>3</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F65" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>2</v>
       </c>
@@ -3749,14 +3909,14 @@
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="E66" t="s">
-        <v>147</v>
-      </c>
-      <c r="F66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>3</v>
       </c>
@@ -3766,14 +3926,14 @@
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" t="s">
-        <v>338</v>
-      </c>
-      <c r="F67">
+      <c r="F67" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G67">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>35</v>
       </c>
@@ -3787,13 +3947,16 @@
         <v>37</v>
       </c>
       <c r="E69" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -3806,19 +3969,22 @@
       <c r="D70">
         <v>3</v>
       </c>
-      <c r="E70" t="s">
-        <v>339</v>
-      </c>
-      <c r="F70" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E71" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F71" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>2</v>
       </c>
@@ -3828,11 +3994,11 @@
       <c r="D72">
         <v>3</v>
       </c>
-      <c r="E72" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>3</v>
       </c>
@@ -3842,11 +4008,11 @@
       <c r="D73">
         <v>3</v>
       </c>
-      <c r="E73" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>4</v>
       </c>
@@ -3856,11 +4022,11 @@
       <c r="D74">
         <v>3</v>
       </c>
-      <c r="E74" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>5</v>
       </c>
@@ -3870,11 +4036,11 @@
       <c r="D75">
         <v>2</v>
       </c>
-      <c r="E75" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -3888,13 +4054,16 @@
         <v>37</v>
       </c>
       <c r="E77" t="s">
+        <v>55</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -3907,19 +4076,22 @@
       <c r="D78">
         <v>2</v>
       </c>
-      <c r="E78" t="s">
-        <v>150</v>
-      </c>
-      <c r="F78" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E79" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G78" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F79" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>2</v>
       </c>
@@ -3929,11 +4101,11 @@
       <c r="D80">
         <v>2</v>
       </c>
-      <c r="E80" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F80" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>3</v>
       </c>
@@ -3943,11 +4115,11 @@
       <c r="D81">
         <v>2</v>
       </c>
-      <c r="E81" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F81" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>4</v>
       </c>
@@ -3957,11 +4129,11 @@
       <c r="D82">
         <v>2</v>
       </c>
-      <c r="E82" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F82" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>5</v>
       </c>
@@ -3971,11 +4143,11 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F83" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -3989,18 +4161,21 @@
         <v>37</v>
       </c>
       <c r="E85" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>125</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4011,19 +4186,22 @@
       <c r="D86">
         <v>3</v>
       </c>
-      <c r="E86" t="s">
-        <v>158</v>
-      </c>
-      <c r="F86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E87" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F87" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>2</v>
       </c>
@@ -4033,14 +4211,14 @@
       <c r="D88">
         <v>3</v>
       </c>
-      <c r="E88" t="s">
-        <v>345</v>
-      </c>
-      <c r="F88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F88" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>3</v>
       </c>
@@ -4050,14 +4228,14 @@
       <c r="D89">
         <v>3</v>
       </c>
-      <c r="E89" t="s">
-        <v>344</v>
-      </c>
-      <c r="F89">
+      <c r="F89" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G89">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -4071,16 +4249,19 @@
         <v>37</v>
       </c>
       <c r="E91" t="s">
+        <v>55</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>125</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -4093,19 +4274,22 @@
       <c r="D92">
         <v>4</v>
       </c>
-      <c r="E92" t="s">
-        <v>160</v>
-      </c>
-      <c r="F92">
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G92">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E93" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F93" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>2</v>
       </c>
@@ -4115,14 +4299,14 @@
       <c r="D94">
         <v>4</v>
       </c>
-      <c r="E94" t="s">
-        <v>162</v>
-      </c>
-      <c r="F94">
+      <c r="F94" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G94">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>3</v>
       </c>
@@ -4132,14 +4316,14 @@
       <c r="D95">
         <v>4</v>
       </c>
-      <c r="E95" t="s">
-        <v>163</v>
-      </c>
-      <c r="F95">
+      <c r="F95" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G95">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>4</v>
       </c>
@@ -4149,14 +4333,14 @@
       <c r="D96">
         <v>3</v>
       </c>
-      <c r="E96" t="s">
-        <v>346</v>
-      </c>
-      <c r="F96">
+      <c r="F96" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G96">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>5</v>
       </c>
@@ -4166,14 +4350,14 @@
       <c r="D97">
         <v>3</v>
       </c>
-      <c r="E97" t="s">
-        <v>347</v>
-      </c>
-      <c r="F97">
+      <c r="F97" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G97">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>55</v>
       </c>
@@ -4186,18 +4370,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G104"/>
+  <dimension ref="A2:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="142.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -4211,15 +4400,18 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4230,16 +4422,19 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F4" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -4249,11 +4444,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -4263,11 +4458,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -4277,11 +4472,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -4291,11 +4486,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -4309,15 +4504,18 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4328,16 +4526,19 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
@@ -4347,11 +4548,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -4361,11 +4562,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>4</v>
       </c>
@@ -4375,11 +4576,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -4389,11 +4590,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4407,18 +4608,21 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>125</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4429,19 +4633,22 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
@@ -4451,14 +4658,14 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3</v>
       </c>
@@ -4468,14 +4675,14 @@
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -4489,18 +4696,21 @@
         <v>37</v>
       </c>
       <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>125</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4511,19 +4721,22 @@
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>201</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="F26" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2</v>
       </c>
@@ -4533,14 +4746,14 @@
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
-        <v>202</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>3</v>
       </c>
@@ -4550,14 +4763,14 @@
       <c r="D28">
         <v>2</v>
       </c>
-      <c r="E28" t="s">
-        <v>203</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>4</v>
       </c>
@@ -4567,14 +4780,14 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
-        <v>205</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>5</v>
       </c>
@@ -4584,14 +4797,14 @@
       <c r="D30">
         <v>2</v>
       </c>
-      <c r="E30" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -4605,18 +4818,21 @@
         <v>37</v>
       </c>
       <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>125</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4627,19 +4843,22 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>206</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F34" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>2</v>
       </c>
@@ -4649,14 +4868,14 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>3</v>
       </c>
@@ -4666,14 +4885,14 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
-        <v>209</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -4687,15 +4906,18 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4706,16 +4928,19 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2</v>
       </c>
@@ -4725,11 +4950,11 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>3</v>
       </c>
@@ -4739,11 +4964,11 @@
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>4</v>
       </c>
@@ -4753,11 +4978,11 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>5</v>
       </c>
@@ -4767,11 +4992,11 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>6</v>
       </c>
@@ -4781,11 +5006,11 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -4799,18 +5024,21 @@
         <v>37</v>
       </c>
       <c r="E47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>125</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4821,19 +5049,22 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
-        <v>220</v>
-      </c>
-      <c r="F49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F49" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>2</v>
       </c>
@@ -4843,14 +5074,14 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" t="s">
-        <v>222</v>
-      </c>
-      <c r="F50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F50" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>3</v>
       </c>
@@ -4860,14 +5091,14 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" t="s">
-        <v>221</v>
-      </c>
-      <c r="F51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F51" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>4</v>
       </c>
@@ -4877,14 +5108,14 @@
       <c r="D52">
         <v>2</v>
       </c>
-      <c r="E52" t="s">
-        <v>348</v>
-      </c>
-      <c r="F52">
+      <c r="F52" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G52">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -4898,18 +5129,21 @@
         <v>37</v>
       </c>
       <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>125</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4920,19 +5154,22 @@
       <c r="D55">
         <v>2</v>
       </c>
-      <c r="E55" t="s">
-        <v>224</v>
-      </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="F56" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>2</v>
       </c>
@@ -4942,14 +5179,14 @@
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="E57" t="s">
-        <v>226</v>
-      </c>
-      <c r="F57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F57" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>3</v>
       </c>
@@ -4959,14 +5196,14 @@
       <c r="D58">
         <v>2</v>
       </c>
-      <c r="E58" t="s">
-        <v>349</v>
-      </c>
-      <c r="F58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F58" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -4980,18 +5217,21 @@
         <v>37</v>
       </c>
       <c r="E60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>125</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -5002,19 +5242,22 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E62" t="s">
-        <v>229</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F62" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>2</v>
       </c>
@@ -5024,14 +5267,14 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63" t="s">
-        <v>230</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F63" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>3</v>
       </c>
@@ -5041,14 +5284,14 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" t="s">
-        <v>231</v>
-      </c>
-      <c r="F64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F64" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>4</v>
       </c>
@@ -5058,14 +5301,14 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65" t="s">
-        <v>232</v>
-      </c>
-      <c r="F65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F65" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>5</v>
       </c>
@@ -5075,14 +5318,14 @@
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="E66" t="s">
-        <v>233</v>
-      </c>
-      <c r="F66">
+      <c r="F66" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G66">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -5096,18 +5339,21 @@
         <v>37</v>
       </c>
       <c r="E68" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>125</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -5118,19 +5364,22 @@
       <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" t="s">
-        <v>235</v>
-      </c>
-      <c r="F69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E70" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F70" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>2</v>
       </c>
@@ -5140,14 +5389,14 @@
       <c r="D71">
         <v>2</v>
       </c>
-      <c r="E71" t="s">
-        <v>237</v>
-      </c>
-      <c r="F71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F71" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>3</v>
       </c>
@@ -5157,14 +5406,14 @@
       <c r="D72">
         <v>1</v>
       </c>
-      <c r="E72" t="s">
-        <v>238</v>
-      </c>
-      <c r="F72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F72" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>35</v>
       </c>
@@ -5178,15 +5427,18 @@
         <v>37</v>
       </c>
       <c r="E74" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -5197,16 +5449,19 @@
       <c r="D75">
         <v>3</v>
       </c>
-      <c r="E75" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E76" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F76" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>2</v>
       </c>
@@ -5216,11 +5471,11 @@
       <c r="D77">
         <v>3</v>
       </c>
-      <c r="E77" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F77" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>3</v>
       </c>
@@ -5230,11 +5485,11 @@
       <c r="D78">
         <v>3</v>
       </c>
-      <c r="E78" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F78" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>4</v>
       </c>
@@ -5244,11 +5499,11 @@
       <c r="D79">
         <v>3</v>
       </c>
-      <c r="E79" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F79" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>5</v>
       </c>
@@ -5258,11 +5513,11 @@
       <c r="D80">
         <v>2</v>
       </c>
-      <c r="E80" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F80" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -5276,15 +5531,18 @@
         <v>37</v>
       </c>
       <c r="E82" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -5295,16 +5553,19 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E84" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F84" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>2</v>
       </c>
@@ -5314,11 +5575,11 @@
       <c r="D85">
         <v>1</v>
       </c>
-      <c r="E85" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F85" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>3</v>
       </c>
@@ -5328,11 +5589,11 @@
       <c r="D86">
         <v>1</v>
       </c>
-      <c r="E86" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F86" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>4</v>
       </c>
@@ -5342,11 +5603,11 @@
       <c r="D87">
         <v>1</v>
       </c>
-      <c r="E87" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F87" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>5</v>
       </c>
@@ -5356,11 +5617,11 @@
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="E88" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F88" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>35</v>
       </c>
@@ -5374,18 +5635,21 @@
         <v>37</v>
       </c>
       <c r="E90" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>125</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -5396,19 +5660,22 @@
       <c r="D91">
         <v>3</v>
       </c>
-      <c r="E91" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E92" t="s">
-        <v>253</v>
-      </c>
-      <c r="F92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F92" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>2</v>
       </c>
@@ -5418,14 +5685,14 @@
       <c r="D93">
         <v>3</v>
       </c>
-      <c r="E93" t="s">
-        <v>254</v>
-      </c>
-      <c r="F93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F93" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>3</v>
       </c>
@@ -5435,14 +5702,14 @@
       <c r="D94">
         <v>2</v>
       </c>
-      <c r="E94" t="s">
-        <v>255</v>
-      </c>
-      <c r="F94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F94" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>35</v>
       </c>
@@ -5456,18 +5723,21 @@
         <v>37</v>
       </c>
       <c r="E96" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>125</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -5478,19 +5748,22 @@
       <c r="D97">
         <v>3</v>
       </c>
-      <c r="E97" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E98" t="s">
-        <v>352</v>
-      </c>
-      <c r="F98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F98" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>2</v>
       </c>
@@ -5500,14 +5773,14 @@
       <c r="D99">
         <v>3</v>
       </c>
-      <c r="E99" t="s">
-        <v>353</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>3</v>
       </c>
@@ -5517,14 +5790,14 @@
       <c r="D100">
         <v>3</v>
       </c>
-      <c r="E100" t="s">
-        <v>258</v>
-      </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>4</v>
       </c>
@@ -5534,14 +5807,14 @@
       <c r="D101">
         <v>3</v>
       </c>
-      <c r="E101" t="s">
-        <v>257</v>
-      </c>
-      <c r="F101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>5</v>
       </c>
@@ -5551,14 +5824,14 @@
       <c r="D102">
         <v>2</v>
       </c>
-      <c r="E102" t="s">
-        <v>354</v>
-      </c>
-      <c r="F102">
+      <c r="F102" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G102">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>60</v>
       </c>
@@ -5570,18 +5843,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G96"/>
+  <dimension ref="A2:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="116" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -5595,15 +5868,18 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5614,16 +5890,19 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -5633,11 +5912,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -5647,11 +5926,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -5661,11 +5940,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -5675,11 +5954,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -5693,18 +5972,21 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>125</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5715,19 +5997,22 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>279</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F12" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
@@ -5737,14 +6022,14 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>280</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -5754,14 +6039,14 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>281</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>4</v>
       </c>
@@ -5771,14 +6056,14 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -5788,14 +6073,14 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
-        <v>357</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5809,18 +6094,21 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
+        <v>374</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>125</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5831,19 +6119,22 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>326</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
@@ -5853,14 +6144,14 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
-        <v>358</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -5874,18 +6165,21 @@
         <v>37</v>
       </c>
       <c r="E23" t="s">
+        <v>374</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>125</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5896,19 +6190,22 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>362</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="F25" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2</v>
       </c>
@@ -5918,14 +6215,14 @@
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
-        <v>360</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>3</v>
       </c>
@@ -5935,14 +6232,14 @@
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
-        <v>361</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -5956,18 +6253,21 @@
         <v>37</v>
       </c>
       <c r="E29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>125</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5978,19 +6278,22 @@
       <c r="D30">
         <v>2</v>
       </c>
-      <c r="E30" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>285</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2</v>
       </c>
@@ -6000,14 +6303,14 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
-        <v>286</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>3</v>
       </c>
@@ -6017,14 +6320,14 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>287</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -6038,18 +6341,21 @@
         <v>37</v>
       </c>
       <c r="E35" t="s">
+        <v>374</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>125</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -6060,19 +6366,22 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
-        <v>289</v>
-      </c>
-      <c r="F36">
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>2</v>
       </c>
@@ -6082,14 +6391,14 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" t="s">
-        <v>291</v>
-      </c>
-      <c r="F38">
+      <c r="F38" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G38">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>3</v>
       </c>
@@ -6099,14 +6408,14 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" t="s">
-        <v>292</v>
-      </c>
-      <c r="F39">
+      <c r="F39" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G39">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -6120,18 +6429,21 @@
         <v>37</v>
       </c>
       <c r="E41" t="s">
+        <v>374</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>125</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -6142,19 +6454,22 @@
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>294</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2</v>
       </c>
@@ -6164,14 +6479,14 @@
       <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" t="s">
-        <v>363</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>3</v>
       </c>
@@ -6181,14 +6496,14 @@
       <c r="D45">
         <v>2</v>
       </c>
-      <c r="E45" t="s">
-        <v>364</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>4</v>
       </c>
@@ -6198,14 +6513,14 @@
       <c r="D46">
         <v>2</v>
       </c>
-      <c r="E46" t="s">
-        <v>365</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -6219,18 +6534,21 @@
         <v>37</v>
       </c>
       <c r="E48" t="s">
+        <v>374</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>125</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6241,19 +6559,22 @@
       <c r="D49">
         <v>3</v>
       </c>
-      <c r="E49" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E50" t="s">
-        <v>296</v>
-      </c>
-      <c r="F50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F50" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>2</v>
       </c>
@@ -6263,14 +6584,14 @@
       <c r="D51">
         <v>3</v>
       </c>
-      <c r="E51" t="s">
-        <v>297</v>
-      </c>
-      <c r="F51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>3</v>
       </c>
@@ -6280,14 +6601,14 @@
       <c r="D52">
         <v>3</v>
       </c>
-      <c r="E52" t="s">
-        <v>298</v>
-      </c>
-      <c r="F52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>4</v>
       </c>
@@ -6297,14 +6618,14 @@
       <c r="D53">
         <v>3</v>
       </c>
-      <c r="E53" t="s">
-        <v>299</v>
-      </c>
-      <c r="F53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>5</v>
       </c>
@@ -6314,14 +6635,14 @@
       <c r="D54">
         <v>2</v>
       </c>
-      <c r="E54" t="s">
-        <v>300</v>
-      </c>
-      <c r="F54">
+      <c r="F54" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G54">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -6335,15 +6656,18 @@
         <v>37</v>
       </c>
       <c r="E56" t="s">
+        <v>374</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6354,16 +6678,19 @@
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="E57" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E58" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F58" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>2</v>
       </c>
@@ -6373,11 +6700,11 @@
       <c r="D59">
         <v>2</v>
       </c>
-      <c r="E59" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>3</v>
       </c>
@@ -6387,11 +6714,11 @@
       <c r="D60">
         <v>2</v>
       </c>
-      <c r="E60" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>4</v>
       </c>
@@ -6401,11 +6728,11 @@
       <c r="D61">
         <v>2</v>
       </c>
-      <c r="E61" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>5</v>
       </c>
@@ -6415,11 +6742,11 @@
       <c r="D62">
         <v>3</v>
       </c>
-      <c r="E62" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>6</v>
       </c>
@@ -6429,11 +6756,11 @@
       <c r="D63">
         <v>3</v>
       </c>
-      <c r="E63" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F63" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -6447,18 +6774,21 @@
         <v>37</v>
       </c>
       <c r="E65" t="s">
+        <v>374</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>125</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -6469,19 +6799,22 @@
       <c r="D66">
         <v>2</v>
       </c>
-      <c r="E66" t="s">
-        <v>309</v>
-      </c>
-      <c r="F66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E67" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F67" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>2</v>
       </c>
@@ -6491,14 +6824,14 @@
       <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68" t="s">
-        <v>311</v>
-      </c>
-      <c r="F68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F68" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>3</v>
       </c>
@@ -6508,14 +6841,14 @@
       <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" t="s">
-        <v>312</v>
-      </c>
-      <c r="F69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F69" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -6529,15 +6862,18 @@
         <v>37</v>
       </c>
       <c r="E71" t="s">
+        <v>374</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -6548,16 +6884,19 @@
       <c r="D72">
         <v>4</v>
       </c>
-      <c r="E72" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E73" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F73" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>2</v>
       </c>
@@ -6567,11 +6906,11 @@
       <c r="D74">
         <v>4</v>
       </c>
-      <c r="E74" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F74" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>3</v>
       </c>
@@ -6581,11 +6920,11 @@
       <c r="D75">
         <v>3</v>
       </c>
-      <c r="E75" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F75" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -6599,15 +6938,18 @@
         <v>37</v>
       </c>
       <c r="E77" t="s">
+        <v>374</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -6618,16 +6960,19 @@
       <c r="D78">
         <v>2</v>
       </c>
-      <c r="E78" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E79" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F79" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>2</v>
       </c>
@@ -6637,11 +6982,11 @@
       <c r="D80">
         <v>2</v>
       </c>
-      <c r="E80" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F80" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>3</v>
       </c>
@@ -6651,11 +6996,11 @@
       <c r="D81">
         <v>2</v>
       </c>
-      <c r="E81" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F81" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>4</v>
       </c>
@@ -6665,11 +7010,11 @@
       <c r="D82">
         <v>2</v>
       </c>
-      <c r="E82" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F82" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>35</v>
       </c>
@@ -6683,18 +7028,21 @@
         <v>37</v>
       </c>
       <c r="E84" t="s">
+        <v>374</v>
+      </c>
+      <c r="F84" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>125</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6705,19 +7053,22 @@
       <c r="D85">
         <v>2</v>
       </c>
-      <c r="E85" t="s">
-        <v>317</v>
-      </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E86" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F86" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>2</v>
       </c>
@@ -6727,14 +7078,14 @@
       <c r="D87">
         <v>3</v>
       </c>
-      <c r="E87" t="s">
-        <v>319</v>
-      </c>
-      <c r="F87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F87" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>35</v>
       </c>
@@ -6748,18 +7099,21 @@
         <v>37</v>
       </c>
       <c r="E89" t="s">
+        <v>374</v>
+      </c>
+      <c r="F89" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>125</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -6770,19 +7124,22 @@
       <c r="D90">
         <v>2</v>
       </c>
-      <c r="E90" t="s">
-        <v>320</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E91" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="F91" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>2</v>
       </c>
@@ -6792,14 +7149,14 @@
       <c r="D92">
         <v>2</v>
       </c>
-      <c r="E92" t="s">
-        <v>321</v>
-      </c>
-      <c r="F92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F92" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>3</v>
       </c>
@@ -6809,14 +7166,14 @@
       <c r="D93">
         <v>3</v>
       </c>
-      <c r="E93" t="s">
-        <v>373</v>
-      </c>
-      <c r="F93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F93" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>4</v>
       </c>
@@ -6826,14 +7183,14 @@
       <c r="D94">
         <v>3</v>
       </c>
-      <c r="E94" t="s">
-        <v>374</v>
-      </c>
-      <c r="F94">
+      <c r="F94" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="G94">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>57</v>
       </c>
